--- a/Docs/ScenariosPassionFruit.xlsx
+++ b/Docs/ScenariosPassionFruit.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\SoftuniQA_Automation\GitHub TeamWork\Teamwork\Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19425" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="TestScenario" sheetId="2" r:id="rId1"/>
@@ -13,8 +18,8 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Expected result</t>
   </si>
@@ -132,9 +137,6 @@
     <t>Logged user log off the Blog</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Start Browser     2. Navigate to  URL  http://localhost:60634/Article/List    3. Chech the user is logged     4. Click on Article Heading            5. View Article Details Page    6.Click on Edit button    </t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Start Browser     2. Navigate to  URL  http://localhost:60634/Article/List    3. Chech the user is logged   4. Click on Article Heading              5. View Article Details Page    6.Click on Delete button    </t>
   </si>
   <si>
@@ -188,12 +190,24 @@
   <si>
     <t>User is logging of. Blog home page is loaded with no user logged in.</t>
   </si>
+  <si>
+    <t>Logged user tries to create post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Start Browser     2. Navigate to  URL  http://localhost:60634/Article/List    3. Chech the user is logged     4. Click on Article Heading            5.  View Article Details Page  6.Click on Edit button    </t>
+  </si>
+  <si>
+    <t>Redirect to Create Article page. Registered user can create posts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Start Browser     2. Navigate to  URL  http://localhost:60634/Article/List    3. Check the user is logged     4. Click on Create button      </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -408,7 +422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -518,6 +532,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -822,34 +839,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I941"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B17"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.54296875" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.54296875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="57.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="57.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="76.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" style="14" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="76.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="35.5">
+    <row r="1" spans="1:9" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A1" s="26" t="s">
         <v>3</v>
       </c>
@@ -878,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" ht="62" customHeight="1">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29">
         <v>1</v>
       </c>
@@ -899,7 +916,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="74.25" customHeight="1">
+    <row r="3" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="30">
         <v>2</v>
       </c>
@@ -920,7 +937,7 @@
       </c>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="1:9" ht="60.5">
+    <row r="4" spans="1:9" ht="63.75" x14ac:dyDescent="0.5">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -941,7 +958,7 @@
       </c>
       <c r="I4" s="10"/>
     </row>
-    <row r="5" spans="1:9" ht="60.5">
+    <row r="5" spans="1:9" ht="63.75" x14ac:dyDescent="0.5">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -962,7 +979,7 @@
       </c>
       <c r="I5" s="10"/>
     </row>
-    <row r="6" spans="1:9" ht="60.5">
+    <row r="6" spans="1:9" ht="63.75" x14ac:dyDescent="0.5">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -983,7 +1000,7 @@
       </c>
       <c r="I6" s="10"/>
     </row>
-    <row r="7" spans="1:9" ht="54" customHeight="1">
+    <row r="7" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -1002,7 +1019,7 @@
       </c>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" ht="57.5" customHeight="1">
+    <row r="8" spans="1:9" ht="57.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -1021,228 +1038,239 @@
       </c>
       <c r="I8" s="10"/>
     </row>
-    <row r="9" spans="1:9" ht="72" customHeight="1">
+    <row r="9" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>24</v>
+      <c r="B9" s="41" t="s">
+        <v>54</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="I9" s="10"/>
     </row>
-    <row r="10" spans="1:9" ht="72" customHeight="1">
+    <row r="10" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="29">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
       <c r="G10" s="3" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" ht="75.5" customHeight="1">
+    <row r="11" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="29">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I11" s="10"/>
     </row>
-    <row r="12" spans="1:9" ht="75.5" customHeight="1">
+    <row r="12" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="29">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I12" s="10"/>
     </row>
-    <row r="13" spans="1:9" s="40" customFormat="1" ht="76.5" customHeight="1">
-      <c r="A13" s="34">
+    <row r="13" spans="1:9" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>45</v>
+      <c r="B13" s="15" t="s">
+        <v>27</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="39" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" s="40" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="34">
+        <v>13</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="38"/>
-    </row>
-    <row r="14" spans="1:9" ht="35.5">
-      <c r="A14" s="29">
-        <v>13</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="43.5" customHeight="1">
+      <c r="I14" s="38"/>
+    </row>
+    <row r="15" spans="1:9" ht="35.25" x14ac:dyDescent="0.5">
       <c r="A15" s="29">
         <v>14</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
       <c r="G15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:9" ht="54.5" customHeight="1">
+    <row r="16" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="29">
         <v>15</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" ht="35.5">
+    <row r="17" spans="1:9" ht="54.6" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="29">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>28</v>
+      <c r="B17" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="3" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
-      <c r="H17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="51.5" customHeight="1" thickBot="1">
-      <c r="A18" s="31"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="B20" s="41" t="s">
+    <row r="18" spans="1:9" ht="48.75" x14ac:dyDescent="0.5">
+      <c r="A18" s="29">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="B21" s="41"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="6"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="B22" s="16" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="18"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="42"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="6"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="B23" s="17"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" s="17"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1250,7 +1278,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" s="17"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1258,7 +1286,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" s="17"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1266,7 +1294,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" s="17"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1274,7 +1302,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B28" s="17"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1282,7 +1310,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="6"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B29" s="17"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1290,7 +1318,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="6"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B30" s="17"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1298,7 +1326,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="6"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B31" s="17"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1306,7 +1334,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B32" s="17"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1314,7 +1342,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="33" spans="2:7">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="17"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1322,7 +1350,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="6"/>
     </row>
-    <row r="34" spans="2:7">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="17"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1330,7 +1358,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="6"/>
     </row>
-    <row r="35" spans="2:7">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="17"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1338,7 +1366,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="6"/>
     </row>
-    <row r="36" spans="2:7">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="17"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1346,7 +1374,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="6"/>
     </row>
-    <row r="37" spans="2:7">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="17"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1354,7 +1382,7 @@
       <c r="F37" s="2"/>
       <c r="G37" s="6"/>
     </row>
-    <row r="38" spans="2:7">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="17"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1362,7 +1390,7 @@
       <c r="F38" s="2"/>
       <c r="G38" s="6"/>
     </row>
-    <row r="39" spans="2:7">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" s="17"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1370,7 +1398,7 @@
       <c r="F39" s="2"/>
       <c r="G39" s="6"/>
     </row>
-    <row r="40" spans="2:7">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" s="17"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1378,7 +1406,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="6"/>
     </row>
-    <row r="41" spans="2:7">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" s="17"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1386,7 +1414,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="6"/>
     </row>
-    <row r="42" spans="2:7">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" s="17"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1394,7 +1422,7 @@
       <c r="F42" s="2"/>
       <c r="G42" s="6"/>
     </row>
-    <row r="43" spans="2:7">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" s="17"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1402,7 +1430,7 @@
       <c r="F43" s="2"/>
       <c r="G43" s="6"/>
     </row>
-    <row r="44" spans="2:7">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" s="17"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1410,7 +1438,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="6"/>
     </row>
-    <row r="45" spans="2:7">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="17"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1418,7 +1446,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="6"/>
     </row>
-    <row r="46" spans="2:7">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="17"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1426,7 +1454,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="6"/>
     </row>
-    <row r="47" spans="2:7">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="17"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1434,7 +1462,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="6"/>
     </row>
-    <row r="48" spans="2:7">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" s="17"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1442,7 +1470,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="6"/>
     </row>
-    <row r="49" spans="2:7">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" s="17"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1450,7 +1478,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="6"/>
     </row>
-    <row r="50" spans="2:7">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" s="17"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1458,7 +1486,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="6"/>
     </row>
-    <row r="51" spans="2:7">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" s="17"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1466,7 +1494,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="6"/>
     </row>
-    <row r="52" spans="2:7">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" s="17"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1474,7 +1502,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="6"/>
     </row>
-    <row r="53" spans="2:7">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B53" s="17"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1482,7 +1510,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="6"/>
     </row>
-    <row r="54" spans="2:7">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B54" s="17"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -1490,7 +1518,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="6"/>
     </row>
-    <row r="55" spans="2:7">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B55" s="17"/>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -1498,7 +1526,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="6"/>
     </row>
-    <row r="56" spans="2:7">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B56" s="17"/>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -1506,7 +1534,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="6"/>
     </row>
-    <row r="57" spans="2:7">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="17"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -1514,7 +1542,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="6"/>
     </row>
-    <row r="58" spans="2:7">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="17"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -1522,7 +1550,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="6"/>
     </row>
-    <row r="59" spans="2:7">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" s="17"/>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -1530,7 +1558,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="6"/>
     </row>
-    <row r="60" spans="2:7">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="17"/>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -1538,7 +1566,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" spans="2:7">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="17"/>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -1546,7 +1574,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="6"/>
     </row>
-    <row r="62" spans="2:7">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B62" s="17"/>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -1554,7 +1582,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="6"/>
     </row>
-    <row r="63" spans="2:7">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B63" s="17"/>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -1562,7 +1590,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="6"/>
     </row>
-    <row r="64" spans="2:7">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B64" s="17"/>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -1570,7 +1598,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="6"/>
     </row>
-    <row r="65" spans="2:7">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B65" s="17"/>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -1578,7 +1606,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="2:7">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B66" s="17"/>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -1586,7 +1614,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="6"/>
     </row>
-    <row r="67" spans="2:7">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" s="17"/>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -1594,7 +1622,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="2:7">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" s="17"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
@@ -1602,7 +1630,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="6"/>
     </row>
-    <row r="69" spans="2:7">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B69" s="17"/>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -1610,7 +1638,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="6"/>
     </row>
-    <row r="70" spans="2:7">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B70" s="17"/>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -1618,7 +1646,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="6"/>
     </row>
-    <row r="71" spans="2:7">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="17"/>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -1626,7 +1654,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="6"/>
     </row>
-    <row r="72" spans="2:7">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="17"/>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -1634,7 +1662,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="6"/>
     </row>
-    <row r="73" spans="2:7">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B73" s="17"/>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -1642,7 +1670,7 @@
       <c r="F73" s="2"/>
       <c r="G73" s="6"/>
     </row>
-    <row r="74" spans="2:7">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B74" s="17"/>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -1650,7 +1678,7 @@
       <c r="F74" s="2"/>
       <c r="G74" s="6"/>
     </row>
-    <row r="75" spans="2:7">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" s="17"/>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -1658,7 +1686,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="6"/>
     </row>
-    <row r="76" spans="2:7">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" s="17"/>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -1666,7 +1694,7 @@
       <c r="F76" s="2"/>
       <c r="G76" s="6"/>
     </row>
-    <row r="77" spans="2:7">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B77" s="17"/>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -1674,7 +1702,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="6"/>
     </row>
-    <row r="78" spans="2:7">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B78" s="17"/>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -1682,7 +1710,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="6"/>
     </row>
-    <row r="79" spans="2:7">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B79" s="17"/>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -1690,7 +1718,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="6"/>
     </row>
-    <row r="80" spans="2:7">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B80" s="17"/>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -1698,7 +1726,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="6"/>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B81" s="17"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -1706,7 +1734,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="6"/>
     </row>
-    <row r="82" spans="2:7">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B82" s="17"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
@@ -1714,7 +1742,7 @@
       <c r="F82" s="2"/>
       <c r="G82" s="6"/>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" s="17"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -1722,7 +1750,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="6"/>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B84" s="17"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -1730,7 +1758,7 @@
       <c r="F84" s="2"/>
       <c r="G84" s="6"/>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B85" s="17"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -1738,7 +1766,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="6"/>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B86" s="17"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -1746,7 +1774,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="6"/>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B87" s="17"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -1754,7 +1782,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="6"/>
     </row>
-    <row r="88" spans="2:7">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B88" s="17"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -1762,7 +1790,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="6"/>
     </row>
-    <row r="89" spans="2:7">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B89" s="17"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -1770,7 +1798,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="6"/>
     </row>
-    <row r="90" spans="2:7">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B90" s="17"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -1778,7 +1806,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="6"/>
     </row>
-    <row r="91" spans="2:7">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B91" s="17"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -1786,7 +1814,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="6"/>
     </row>
-    <row r="92" spans="2:7">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B92" s="17"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -1794,7 +1822,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="6"/>
     </row>
-    <row r="93" spans="2:7">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B93" s="17"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -1802,7 +1830,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="6"/>
     </row>
-    <row r="94" spans="2:7">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B94" s="17"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -1810,7 +1838,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="6"/>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B95" s="17"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -1818,7 +1846,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="6"/>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B96" s="17"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
@@ -1826,7 +1854,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="6"/>
     </row>
-    <row r="97" spans="2:7">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="17"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
@@ -1834,7 +1862,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="6"/>
     </row>
-    <row r="98" spans="2:7">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="17"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -1842,7 +1870,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="6"/>
     </row>
-    <row r="99" spans="2:7">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="17"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -1850,7 +1878,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="6"/>
     </row>
-    <row r="100" spans="2:7">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="17"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -1858,7 +1886,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="6"/>
     </row>
-    <row r="101" spans="2:7">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="17"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -1866,7 +1894,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="6"/>
     </row>
-    <row r="102" spans="2:7">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="17"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -1874,7 +1902,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="6"/>
     </row>
-    <row r="103" spans="2:7">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="17"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
@@ -1882,7 +1910,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="6"/>
     </row>
-    <row r="104" spans="2:7">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="17"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
@@ -1890,7 +1918,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="6"/>
     </row>
-    <row r="105" spans="2:7">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="17"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -1898,7 +1926,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="6"/>
     </row>
-    <row r="106" spans="2:7">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="17"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -1906,7 +1934,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="6"/>
     </row>
-    <row r="107" spans="2:7">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="17"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -1914,7 +1942,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="6"/>
     </row>
-    <row r="108" spans="2:7">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="17"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -1922,7 +1950,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="6"/>
     </row>
-    <row r="109" spans="2:7">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="17"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -1930,7 +1958,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="6"/>
     </row>
-    <row r="110" spans="2:7">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="17"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
@@ -1938,7 +1966,7 @@
       <c r="F110" s="2"/>
       <c r="G110" s="6"/>
     </row>
-    <row r="111" spans="2:7">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="17"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
@@ -1946,7 +1974,7 @@
       <c r="F111" s="2"/>
       <c r="G111" s="6"/>
     </row>
-    <row r="112" spans="2:7">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="17"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -1954,7 +1982,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="6"/>
     </row>
-    <row r="113" spans="2:7">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="17"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
@@ -1962,7 +1990,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="6"/>
     </row>
-    <row r="114" spans="2:7">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="17"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -1970,7 +1998,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="6"/>
     </row>
-    <row r="115" spans="2:7">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B115" s="17"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -1978,7 +2006,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="6"/>
     </row>
-    <row r="116" spans="2:7">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B116" s="17"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -1986,7 +2014,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="6"/>
     </row>
-    <row r="117" spans="2:7">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" s="17"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
@@ -1994,7 +2022,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="6"/>
     </row>
-    <row r="118" spans="2:7">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" s="17"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
@@ -2002,7 +2030,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="6"/>
     </row>
-    <row r="119" spans="2:7">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B119" s="17"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -2010,7 +2038,7 @@
       <c r="F119" s="2"/>
       <c r="G119" s="6"/>
     </row>
-    <row r="120" spans="2:7">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="17"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -2018,7 +2046,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="6"/>
     </row>
-    <row r="121" spans="2:7">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="17"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
@@ -2026,7 +2054,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="6"/>
     </row>
-    <row r="122" spans="2:7">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="17"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -2034,7 +2062,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="6"/>
     </row>
-    <row r="123" spans="2:7">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="17"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -2042,7 +2070,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="6"/>
     </row>
-    <row r="124" spans="2:7">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="17"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -2050,7 +2078,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="6"/>
     </row>
-    <row r="125" spans="2:7">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="17"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
@@ -2058,7 +2086,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="6"/>
     </row>
-    <row r="126" spans="2:7">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="17"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -2066,7 +2094,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="6"/>
     </row>
-    <row r="127" spans="2:7">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="17"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -2074,7 +2102,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="6"/>
     </row>
-    <row r="128" spans="2:7">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B128" s="17"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -2082,7 +2110,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="6"/>
     </row>
-    <row r="129" spans="2:7">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" s="17"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -2090,7 +2118,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="6"/>
     </row>
-    <row r="130" spans="2:7">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B130" s="17"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -2098,7 +2126,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="6"/>
     </row>
-    <row r="131" spans="2:7">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" s="17"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
@@ -2106,7 +2134,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="6"/>
     </row>
-    <row r="132" spans="2:7">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" s="17"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
@@ -2114,7 +2142,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="6"/>
     </row>
-    <row r="133" spans="2:7">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B133" s="17"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -2122,7 +2150,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="6"/>
     </row>
-    <row r="134" spans="2:7">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="17"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -2130,7 +2158,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="6"/>
     </row>
-    <row r="135" spans="2:7">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="17"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -2138,7 +2166,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="6"/>
     </row>
-    <row r="136" spans="2:7">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="17"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -2146,7 +2174,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="6"/>
     </row>
-    <row r="137" spans="2:7">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="17"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -2154,7 +2182,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="6"/>
     </row>
-    <row r="138" spans="2:7">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="17"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -2162,7 +2190,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="6"/>
     </row>
-    <row r="139" spans="2:7">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="17"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
@@ -2170,7 +2198,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="6"/>
     </row>
-    <row r="140" spans="2:7">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="17"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -2178,7 +2206,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="6"/>
     </row>
-    <row r="141" spans="2:7">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="17"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -2186,7 +2214,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="6"/>
     </row>
-    <row r="142" spans="2:7">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="17"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -2194,7 +2222,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="6"/>
     </row>
-    <row r="143" spans="2:7">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B143" s="17"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -2202,7 +2230,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="6"/>
     </row>
-    <row r="144" spans="2:7">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B144" s="17"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -2210,7 +2238,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="6"/>
     </row>
-    <row r="145" spans="2:7">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="17"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
@@ -2218,7 +2246,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="6"/>
     </row>
-    <row r="146" spans="2:7">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="17"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
@@ -2226,7 +2254,7 @@
       <c r="F146" s="2"/>
       <c r="G146" s="6"/>
     </row>
-    <row r="147" spans="2:7">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="17"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -2234,7 +2262,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="6"/>
     </row>
-    <row r="148" spans="2:7">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="17"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -2242,7 +2270,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="6"/>
     </row>
-    <row r="149" spans="2:7">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="17"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -2250,7 +2278,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="6"/>
     </row>
-    <row r="150" spans="2:7">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="17"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -2258,7 +2286,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="6"/>
     </row>
-    <row r="151" spans="2:7">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B151" s="17"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -2266,7 +2294,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="6"/>
     </row>
-    <row r="152" spans="2:7">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B152" s="17"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
@@ -2274,7 +2302,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="6"/>
     </row>
-    <row r="153" spans="2:7">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="17"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
@@ -2282,7 +2310,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="6"/>
     </row>
-    <row r="154" spans="2:7">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B154" s="17"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -2290,7 +2318,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="6"/>
     </row>
-    <row r="155" spans="2:7">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B155" s="17"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
@@ -2298,7 +2326,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="6"/>
     </row>
-    <row r="156" spans="2:7">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B156" s="17"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
@@ -2306,7 +2334,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="6"/>
     </row>
-    <row r="157" spans="2:7">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B157" s="17"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
@@ -2314,7 +2342,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="6"/>
     </row>
-    <row r="158" spans="2:7">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B158" s="17"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
@@ -2322,7 +2350,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="6"/>
     </row>
-    <row r="159" spans="2:7">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B159" s="17"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
@@ -2330,7 +2358,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="6"/>
     </row>
-    <row r="160" spans="2:7">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B160" s="17"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
@@ -2338,7 +2366,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="6"/>
     </row>
-    <row r="161" spans="2:7">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B161" s="17"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -2346,7 +2374,7 @@
       <c r="F161" s="2"/>
       <c r="G161" s="6"/>
     </row>
-    <row r="162" spans="2:7">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B162" s="17"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -2354,7 +2382,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="6"/>
     </row>
-    <row r="163" spans="2:7">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B163" s="17"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -2362,7 +2390,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="6"/>
     </row>
-    <row r="164" spans="2:7">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B164" s="17"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -2370,7 +2398,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="6"/>
     </row>
-    <row r="165" spans="2:7">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B165" s="17"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -2378,7 +2406,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="6"/>
     </row>
-    <row r="166" spans="2:7">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B166" s="17"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
@@ -2386,7 +2414,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="6"/>
     </row>
-    <row r="167" spans="2:7">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B167" s="17"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
@@ -2394,7 +2422,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="6"/>
     </row>
-    <row r="168" spans="2:7">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="17"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -2402,7 +2430,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="6"/>
     </row>
-    <row r="169" spans="2:7">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="17"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -2410,7 +2438,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="6"/>
     </row>
-    <row r="170" spans="2:7">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="17"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -2418,7 +2446,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="6"/>
     </row>
-    <row r="171" spans="2:7">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="17"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -2426,7 +2454,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="6"/>
     </row>
-    <row r="172" spans="2:7">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="17"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -2434,7 +2462,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="6"/>
     </row>
-    <row r="173" spans="2:7">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="17"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
@@ -2442,7 +2470,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="6"/>
     </row>
-    <row r="174" spans="2:7">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="17"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
@@ -2450,7 +2478,7 @@
       <c r="F174" s="2"/>
       <c r="G174" s="6"/>
     </row>
-    <row r="175" spans="2:7">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="17"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -2458,7 +2486,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="6"/>
     </row>
-    <row r="176" spans="2:7">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="17"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -2466,7 +2494,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="6"/>
     </row>
-    <row r="177" spans="2:7">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="17"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -2474,7 +2502,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="6"/>
     </row>
-    <row r="178" spans="2:7">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="17"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -2482,7 +2510,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="6"/>
     </row>
-    <row r="179" spans="2:7">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="17"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -2490,7 +2518,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="6"/>
     </row>
-    <row r="180" spans="2:7">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="17"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
@@ -2498,7 +2526,7 @@
       <c r="F180" s="2"/>
       <c r="G180" s="6"/>
     </row>
-    <row r="181" spans="2:7">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="17"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
@@ -2506,7 +2534,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="6"/>
     </row>
-    <row r="182" spans="2:7">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="17"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -2514,7 +2542,7 @@
       <c r="F182" s="2"/>
       <c r="G182" s="6"/>
     </row>
-    <row r="183" spans="2:7">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="17"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -2522,7 +2550,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="6"/>
     </row>
-    <row r="184" spans="2:7">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="17"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -2530,7 +2558,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="6"/>
     </row>
-    <row r="185" spans="2:7">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="17"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -2538,7 +2566,7 @@
       <c r="F185" s="2"/>
       <c r="G185" s="6"/>
     </row>
-    <row r="186" spans="2:7">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="17"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -2546,7 +2574,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="6"/>
     </row>
-    <row r="187" spans="2:7">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="17"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
@@ -2554,7 +2582,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="6"/>
     </row>
-    <row r="188" spans="2:7">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="17"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -2562,7 +2590,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="6"/>
     </row>
-    <row r="189" spans="2:7">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="17"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -2570,7 +2598,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="6"/>
     </row>
-    <row r="190" spans="2:7">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B190" s="17"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -2578,7 +2606,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="6"/>
     </row>
-    <row r="191" spans="2:7">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" s="17"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -2586,7 +2614,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="6"/>
     </row>
-    <row r="192" spans="2:7">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" s="17"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -2594,7 +2622,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="6"/>
     </row>
-    <row r="193" spans="2:7">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" s="17"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -2602,7 +2630,7 @@
       <c r="F193" s="2"/>
       <c r="G193" s="6"/>
     </row>
-    <row r="194" spans="2:7">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" s="17"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
@@ -2610,7 +2638,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="6"/>
     </row>
-    <row r="195" spans="2:7">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" s="17"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
@@ -2618,7 +2646,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="6"/>
     </row>
-    <row r="196" spans="2:7">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" s="17"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
@@ -2626,7 +2654,7 @@
       <c r="F196" s="2"/>
       <c r="G196" s="6"/>
     </row>
-    <row r="197" spans="2:7">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" s="17"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -2634,7 +2662,7 @@
       <c r="F197" s="2"/>
       <c r="G197" s="6"/>
     </row>
-    <row r="198" spans="2:7">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B198" s="17"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -2642,7 +2670,7 @@
       <c r="F198" s="2"/>
       <c r="G198" s="6"/>
     </row>
-    <row r="199" spans="2:7">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B199" s="17"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -2650,7 +2678,7 @@
       <c r="F199" s="2"/>
       <c r="G199" s="6"/>
     </row>
-    <row r="200" spans="2:7">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" s="17"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -2658,7 +2686,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="6"/>
     </row>
-    <row r="201" spans="2:7">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" s="17"/>
       <c r="C201" s="2"/>
       <c r="D201" s="2"/>
@@ -2666,7 +2694,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="6"/>
     </row>
-    <row r="202" spans="2:7">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" s="17"/>
       <c r="C202" s="2"/>
       <c r="D202" s="2"/>
@@ -2674,7 +2702,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="6"/>
     </row>
-    <row r="203" spans="2:7">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" s="17"/>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -2682,7 +2710,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="6"/>
     </row>
-    <row r="204" spans="2:7">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" s="17"/>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -2690,7 +2718,7 @@
       <c r="F204" s="2"/>
       <c r="G204" s="6"/>
     </row>
-    <row r="205" spans="2:7">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" s="17"/>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -2698,7 +2726,7 @@
       <c r="F205" s="2"/>
       <c r="G205" s="6"/>
     </row>
-    <row r="206" spans="2:7">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" s="17"/>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -2706,7 +2734,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="6"/>
     </row>
-    <row r="207" spans="2:7">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" s="17"/>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -2714,7 +2742,7 @@
       <c r="F207" s="2"/>
       <c r="G207" s="6"/>
     </row>
-    <row r="208" spans="2:7">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" s="17"/>
       <c r="C208" s="2"/>
       <c r="D208" s="2"/>
@@ -2722,7 +2750,7 @@
       <c r="F208" s="2"/>
       <c r="G208" s="6"/>
     </row>
-    <row r="209" spans="2:7">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" s="17"/>
       <c r="C209" s="2"/>
       <c r="D209" s="2"/>
@@ -2730,7 +2758,7 @@
       <c r="F209" s="2"/>
       <c r="G209" s="6"/>
     </row>
-    <row r="210" spans="2:7">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" s="17"/>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -2738,7 +2766,7 @@
       <c r="F210" s="2"/>
       <c r="G210" s="6"/>
     </row>
-    <row r="211" spans="2:7">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" s="17"/>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -2746,7 +2774,7 @@
       <c r="F211" s="2"/>
       <c r="G211" s="6"/>
     </row>
-    <row r="212" spans="2:7">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" s="17"/>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -2754,7 +2782,7 @@
       <c r="F212" s="2"/>
       <c r="G212" s="6"/>
     </row>
-    <row r="213" spans="2:7">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" s="17"/>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -2762,7 +2790,7 @@
       <c r="F213" s="2"/>
       <c r="G213" s="6"/>
     </row>
-    <row r="214" spans="2:7">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" s="17"/>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -2770,7 +2798,7 @@
       <c r="F214" s="2"/>
       <c r="G214" s="6"/>
     </row>
-    <row r="215" spans="2:7">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" s="17"/>
       <c r="C215" s="2"/>
       <c r="D215" s="2"/>
@@ -2778,7 +2806,7 @@
       <c r="F215" s="2"/>
       <c r="G215" s="6"/>
     </row>
-    <row r="216" spans="2:7">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" s="17"/>
       <c r="C216" s="2"/>
       <c r="D216" s="2"/>
@@ -2786,7 +2814,7 @@
       <c r="F216" s="2"/>
       <c r="G216" s="6"/>
     </row>
-    <row r="217" spans="2:7">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" s="17"/>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -2794,7 +2822,7 @@
       <c r="F217" s="2"/>
       <c r="G217" s="6"/>
     </row>
-    <row r="218" spans="2:7">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" s="17"/>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -2802,7 +2830,7 @@
       <c r="F218" s="2"/>
       <c r="G218" s="6"/>
     </row>
-    <row r="219" spans="2:7">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" s="17"/>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -2810,7 +2838,7 @@
       <c r="F219" s="2"/>
       <c r="G219" s="6"/>
     </row>
-    <row r="220" spans="2:7">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" s="17"/>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -2818,7 +2846,7 @@
       <c r="F220" s="2"/>
       <c r="G220" s="6"/>
     </row>
-    <row r="221" spans="2:7">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" s="17"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -2826,7 +2854,7 @@
       <c r="F221" s="2"/>
       <c r="G221" s="6"/>
     </row>
-    <row r="222" spans="2:7">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" s="17"/>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -2834,7 +2862,7 @@
       <c r="F222" s="2"/>
       <c r="G222" s="6"/>
     </row>
-    <row r="223" spans="2:7">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" s="17"/>
       <c r="C223" s="2"/>
       <c r="D223" s="2"/>
@@ -2842,7 +2870,7 @@
       <c r="F223" s="2"/>
       <c r="G223" s="6"/>
     </row>
-    <row r="224" spans="2:7">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" s="17"/>
       <c r="C224" s="2"/>
       <c r="D224" s="2"/>
@@ -2850,7 +2878,7 @@
       <c r="F224" s="2"/>
       <c r="G224" s="6"/>
     </row>
-    <row r="225" spans="2:7">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" s="17"/>
       <c r="C225" s="2"/>
       <c r="D225" s="2"/>
@@ -2858,7 +2886,7 @@
       <c r="F225" s="2"/>
       <c r="G225" s="6"/>
     </row>
-    <row r="226" spans="2:7">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" s="17"/>
       <c r="C226" s="2"/>
       <c r="D226" s="2"/>
@@ -2866,7 +2894,7 @@
       <c r="F226" s="2"/>
       <c r="G226" s="6"/>
     </row>
-    <row r="227" spans="2:7">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" s="17"/>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -2874,7 +2902,7 @@
       <c r="F227" s="2"/>
       <c r="G227" s="6"/>
     </row>
-    <row r="228" spans="2:7">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" s="17"/>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -2882,7 +2910,7 @@
       <c r="F228" s="2"/>
       <c r="G228" s="6"/>
     </row>
-    <row r="229" spans="2:7">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" s="17"/>
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
@@ -2890,7 +2918,7 @@
       <c r="F229" s="2"/>
       <c r="G229" s="6"/>
     </row>
-    <row r="230" spans="2:7">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" s="17"/>
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
@@ -2898,7 +2926,7 @@
       <c r="F230" s="2"/>
       <c r="G230" s="6"/>
     </row>
-    <row r="231" spans="2:7">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" s="17"/>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -2906,7 +2934,7 @@
       <c r="F231" s="2"/>
       <c r="G231" s="6"/>
     </row>
-    <row r="232" spans="2:7">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" s="17"/>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -2914,7 +2942,7 @@
       <c r="F232" s="2"/>
       <c r="G232" s="6"/>
     </row>
-    <row r="233" spans="2:7">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" s="17"/>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -2922,7 +2950,7 @@
       <c r="F233" s="2"/>
       <c r="G233" s="6"/>
     </row>
-    <row r="234" spans="2:7">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" s="17"/>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -2930,7 +2958,7 @@
       <c r="F234" s="2"/>
       <c r="G234" s="6"/>
     </row>
-    <row r="235" spans="2:7">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" s="17"/>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -2938,7 +2966,7 @@
       <c r="F235" s="2"/>
       <c r="G235" s="6"/>
     </row>
-    <row r="236" spans="2:7">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" s="17"/>
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
@@ -2946,7 +2974,7 @@
       <c r="F236" s="2"/>
       <c r="G236" s="6"/>
     </row>
-    <row r="237" spans="2:7">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" s="17"/>
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
@@ -2954,7 +2982,7 @@
       <c r="F237" s="2"/>
       <c r="G237" s="6"/>
     </row>
-    <row r="238" spans="2:7">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" s="17"/>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -2962,7 +2990,7 @@
       <c r="F238" s="2"/>
       <c r="G238" s="6"/>
     </row>
-    <row r="239" spans="2:7">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" s="17"/>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -2970,7 +2998,7 @@
       <c r="F239" s="2"/>
       <c r="G239" s="6"/>
     </row>
-    <row r="240" spans="2:7">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" s="17"/>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -2978,7 +3006,7 @@
       <c r="F240" s="2"/>
       <c r="G240" s="6"/>
     </row>
-    <row r="241" spans="2:7">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" s="17"/>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -2986,7 +3014,7 @@
       <c r="F241" s="2"/>
       <c r="G241" s="6"/>
     </row>
-    <row r="242" spans="2:7">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" s="17"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -2994,7 +3022,7 @@
       <c r="F242" s="2"/>
       <c r="G242" s="6"/>
     </row>
-    <row r="243" spans="2:7">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" s="17"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -3002,7 +3030,7 @@
       <c r="F243" s="2"/>
       <c r="G243" s="6"/>
     </row>
-    <row r="244" spans="2:7">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" s="17"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -3010,7 +3038,7 @@
       <c r="F244" s="2"/>
       <c r="G244" s="6"/>
     </row>
-    <row r="245" spans="2:7">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" s="17"/>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -3018,7 +3046,7 @@
       <c r="F245" s="2"/>
       <c r="G245" s="6"/>
     </row>
-    <row r="246" spans="2:7">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" s="17"/>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -3026,7 +3054,7 @@
       <c r="F246" s="2"/>
       <c r="G246" s="6"/>
     </row>
-    <row r="247" spans="2:7">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" s="17"/>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -3034,7 +3062,7 @@
       <c r="F247" s="2"/>
       <c r="G247" s="6"/>
     </row>
-    <row r="248" spans="2:7">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" s="17"/>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -3042,7 +3070,7 @@
       <c r="F248" s="2"/>
       <c r="G248" s="6"/>
     </row>
-    <row r="249" spans="2:7">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B249" s="17"/>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -3050,7 +3078,7 @@
       <c r="F249" s="2"/>
       <c r="G249" s="6"/>
     </row>
-    <row r="250" spans="2:7">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" s="17"/>
       <c r="C250" s="2"/>
       <c r="D250" s="2"/>
@@ -3058,7 +3086,7 @@
       <c r="F250" s="2"/>
       <c r="G250" s="6"/>
     </row>
-    <row r="251" spans="2:7">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" s="17"/>
       <c r="C251" s="2"/>
       <c r="D251" s="2"/>
@@ -3066,7 +3094,7 @@
       <c r="F251" s="2"/>
       <c r="G251" s="6"/>
     </row>
-    <row r="252" spans="2:7">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" s="17"/>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -3074,7 +3102,7 @@
       <c r="F252" s="2"/>
       <c r="G252" s="6"/>
     </row>
-    <row r="253" spans="2:7">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" s="17"/>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -3082,7 +3110,7 @@
       <c r="F253" s="2"/>
       <c r="G253" s="6"/>
     </row>
-    <row r="254" spans="2:7">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" s="17"/>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -3090,7 +3118,7 @@
       <c r="F254" s="2"/>
       <c r="G254" s="6"/>
     </row>
-    <row r="255" spans="2:7">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" s="17"/>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -3098,7 +3126,7 @@
       <c r="F255" s="2"/>
       <c r="G255" s="6"/>
     </row>
-    <row r="256" spans="2:7">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" s="17"/>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -3106,7 +3134,7 @@
       <c r="F256" s="2"/>
       <c r="G256" s="6"/>
     </row>
-    <row r="257" spans="2:7">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B257" s="17"/>
       <c r="C257" s="2"/>
       <c r="D257" s="2"/>
@@ -3114,7 +3142,7 @@
       <c r="F257" s="2"/>
       <c r="G257" s="6"/>
     </row>
-    <row r="258" spans="2:7">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B258" s="17"/>
       <c r="C258" s="2"/>
       <c r="D258" s="2"/>
@@ -3122,7 +3150,7 @@
       <c r="F258" s="2"/>
       <c r="G258" s="6"/>
     </row>
-    <row r="259" spans="2:7">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" s="17"/>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -3130,7 +3158,7 @@
       <c r="F259" s="2"/>
       <c r="G259" s="6"/>
     </row>
-    <row r="260" spans="2:7">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B260" s="17"/>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -3138,7 +3166,7 @@
       <c r="F260" s="2"/>
       <c r="G260" s="6"/>
     </row>
-    <row r="261" spans="2:7">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B261" s="17"/>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -3146,7 +3174,7 @@
       <c r="F261" s="2"/>
       <c r="G261" s="6"/>
     </row>
-    <row r="262" spans="2:7">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" s="17"/>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -3154,7 +3182,7 @@
       <c r="F262" s="2"/>
       <c r="G262" s="6"/>
     </row>
-    <row r="263" spans="2:7">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B263" s="17"/>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -3162,7 +3190,7 @@
       <c r="F263" s="2"/>
       <c r="G263" s="6"/>
     </row>
-    <row r="264" spans="2:7">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" s="17"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -3170,7 +3198,7 @@
       <c r="F264" s="2"/>
       <c r="G264" s="6"/>
     </row>
-    <row r="265" spans="2:7">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" s="17"/>
       <c r="C265" s="2"/>
       <c r="D265" s="2"/>
@@ -3178,7 +3206,7 @@
       <c r="F265" s="2"/>
       <c r="G265" s="6"/>
     </row>
-    <row r="266" spans="2:7">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" s="17"/>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -3186,7 +3214,7 @@
       <c r="F266" s="2"/>
       <c r="G266" s="6"/>
     </row>
-    <row r="267" spans="2:7">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" s="17"/>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -3194,7 +3222,7 @@
       <c r="F267" s="2"/>
       <c r="G267" s="6"/>
     </row>
-    <row r="268" spans="2:7">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" s="17"/>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -3202,7 +3230,7 @@
       <c r="F268" s="2"/>
       <c r="G268" s="6"/>
     </row>
-    <row r="269" spans="2:7">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" s="17"/>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -3210,7 +3238,7 @@
       <c r="F269" s="2"/>
       <c r="G269" s="6"/>
     </row>
-    <row r="270" spans="2:7">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B270" s="17"/>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -3218,7 +3246,7 @@
       <c r="F270" s="2"/>
       <c r="G270" s="6"/>
     </row>
-    <row r="271" spans="2:7">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B271" s="17"/>
       <c r="C271" s="2"/>
       <c r="D271" s="2"/>
@@ -3226,7 +3254,7 @@
       <c r="F271" s="2"/>
       <c r="G271" s="6"/>
     </row>
-    <row r="272" spans="2:7">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B272" s="17"/>
       <c r="C272" s="2"/>
       <c r="D272" s="2"/>
@@ -3234,7 +3262,7 @@
       <c r="F272" s="2"/>
       <c r="G272" s="6"/>
     </row>
-    <row r="273" spans="2:7">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" s="17"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -3242,7 +3270,7 @@
       <c r="F273" s="2"/>
       <c r="G273" s="6"/>
     </row>
-    <row r="274" spans="2:7">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" s="17"/>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -3250,7 +3278,7 @@
       <c r="F274" s="2"/>
       <c r="G274" s="6"/>
     </row>
-    <row r="275" spans="2:7">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" s="17"/>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -3258,7 +3286,7 @@
       <c r="F275" s="2"/>
       <c r="G275" s="6"/>
     </row>
-    <row r="276" spans="2:7">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" s="17"/>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -3266,7 +3294,7 @@
       <c r="F276" s="2"/>
       <c r="G276" s="6"/>
     </row>
-    <row r="277" spans="2:7">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" s="17"/>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -3274,7 +3302,7 @@
       <c r="F277" s="2"/>
       <c r="G277" s="6"/>
     </row>
-    <row r="278" spans="2:7">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" s="17"/>
       <c r="C278" s="2"/>
       <c r="D278" s="2"/>
@@ -3282,7 +3310,7 @@
       <c r="F278" s="2"/>
       <c r="G278" s="6"/>
     </row>
-    <row r="279" spans="2:7">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" s="17"/>
       <c r="C279" s="2"/>
       <c r="D279" s="2"/>
@@ -3290,7 +3318,7 @@
       <c r="F279" s="2"/>
       <c r="G279" s="6"/>
     </row>
-    <row r="280" spans="2:7">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" s="17"/>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -3298,7 +3326,7 @@
       <c r="F280" s="2"/>
       <c r="G280" s="6"/>
     </row>
-    <row r="281" spans="2:7">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" s="17"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -3306,7 +3334,7 @@
       <c r="F281" s="2"/>
       <c r="G281" s="6"/>
     </row>
-    <row r="282" spans="2:7">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" s="17"/>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -3314,7 +3342,7 @@
       <c r="F282" s="2"/>
       <c r="G282" s="6"/>
     </row>
-    <row r="283" spans="2:7">
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" s="17"/>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -3322,7 +3350,7 @@
       <c r="F283" s="2"/>
       <c r="G283" s="6"/>
     </row>
-    <row r="284" spans="2:7">
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" s="17"/>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -3330,7 +3358,7 @@
       <c r="F284" s="2"/>
       <c r="G284" s="6"/>
     </row>
-    <row r="285" spans="2:7">
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" s="17"/>
       <c r="C285" s="2"/>
       <c r="D285" s="2"/>
@@ -3338,7 +3366,7 @@
       <c r="F285" s="2"/>
       <c r="G285" s="6"/>
     </row>
-    <row r="286" spans="2:7">
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" s="17"/>
       <c r="C286" s="2"/>
       <c r="D286" s="2"/>
@@ -3346,7 +3374,7 @@
       <c r="F286" s="2"/>
       <c r="G286" s="6"/>
     </row>
-    <row r="287" spans="2:7">
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B287" s="17"/>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -3354,7 +3382,7 @@
       <c r="F287" s="2"/>
       <c r="G287" s="6"/>
     </row>
-    <row r="288" spans="2:7">
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B288" s="17"/>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -3362,7 +3390,7 @@
       <c r="F288" s="2"/>
       <c r="G288" s="6"/>
     </row>
-    <row r="289" spans="2:7">
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B289" s="17"/>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -3370,7 +3398,7 @@
       <c r="F289" s="2"/>
       <c r="G289" s="6"/>
     </row>
-    <row r="290" spans="2:7">
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B290" s="17"/>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -3378,7 +3406,7 @@
       <c r="F290" s="2"/>
       <c r="G290" s="6"/>
     </row>
-    <row r="291" spans="2:7">
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B291" s="17"/>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -3386,7 +3414,7 @@
       <c r="F291" s="2"/>
       <c r="G291" s="6"/>
     </row>
-    <row r="292" spans="2:7">
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B292" s="17"/>
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
@@ -3394,7 +3422,7 @@
       <c r="F292" s="2"/>
       <c r="G292" s="6"/>
     </row>
-    <row r="293" spans="2:7">
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B293" s="17"/>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -3402,7 +3430,7 @@
       <c r="F293" s="2"/>
       <c r="G293" s="6"/>
     </row>
-    <row r="294" spans="2:7">
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B294" s="17"/>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -3410,7 +3438,7 @@
       <c r="F294" s="2"/>
       <c r="G294" s="6"/>
     </row>
-    <row r="295" spans="2:7">
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B295" s="17"/>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -3418,7 +3446,7 @@
       <c r="F295" s="2"/>
       <c r="G295" s="6"/>
     </row>
-    <row r="296" spans="2:7">
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B296" s="17"/>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -3426,7 +3454,7 @@
       <c r="F296" s="2"/>
       <c r="G296" s="6"/>
     </row>
-    <row r="297" spans="2:7">
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B297" s="17"/>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -3434,7 +3462,7 @@
       <c r="F297" s="2"/>
       <c r="G297" s="6"/>
     </row>
-    <row r="298" spans="2:7">
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B298" s="17"/>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -3442,7 +3470,7 @@
       <c r="F298" s="2"/>
       <c r="G298" s="6"/>
     </row>
-    <row r="299" spans="2:7">
+    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B299" s="17"/>
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
@@ -3450,7 +3478,7 @@
       <c r="F299" s="2"/>
       <c r="G299" s="6"/>
     </row>
-    <row r="300" spans="2:7">
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B300" s="17"/>
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
@@ -3458,7 +3486,7 @@
       <c r="F300" s="2"/>
       <c r="G300" s="6"/>
     </row>
-    <row r="301" spans="2:7">
+    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B301" s="17"/>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -3466,7 +3494,7 @@
       <c r="F301" s="2"/>
       <c r="G301" s="6"/>
     </row>
-    <row r="302" spans="2:7">
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B302" s="17"/>
       <c r="C302" s="2"/>
       <c r="D302" s="2"/>
@@ -3474,7 +3502,7 @@
       <c r="F302" s="2"/>
       <c r="G302" s="6"/>
     </row>
-    <row r="303" spans="2:7">
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B303" s="17"/>
       <c r="C303" s="2"/>
       <c r="D303" s="2"/>
@@ -3482,7 +3510,7 @@
       <c r="F303" s="2"/>
       <c r="G303" s="6"/>
     </row>
-    <row r="304" spans="2:7">
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B304" s="17"/>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -3490,7 +3518,7 @@
       <c r="F304" s="2"/>
       <c r="G304" s="6"/>
     </row>
-    <row r="305" spans="2:7">
+    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B305" s="17"/>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -3498,7 +3526,7 @@
       <c r="F305" s="2"/>
       <c r="G305" s="6"/>
     </row>
-    <row r="306" spans="2:7">
+    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B306" s="17"/>
       <c r="C306" s="2"/>
       <c r="D306" s="2"/>
@@ -3506,7 +3534,7 @@
       <c r="F306" s="2"/>
       <c r="G306" s="6"/>
     </row>
-    <row r="307" spans="2:7">
+    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B307" s="17"/>
       <c r="C307" s="2"/>
       <c r="D307" s="2"/>
@@ -3514,7 +3542,7 @@
       <c r="F307" s="2"/>
       <c r="G307" s="6"/>
     </row>
-    <row r="308" spans="2:7">
+    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B308" s="17"/>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -3522,7 +3550,7 @@
       <c r="F308" s="2"/>
       <c r="G308" s="6"/>
     </row>
-    <row r="309" spans="2:7">
+    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B309" s="17"/>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -3530,7 +3558,7 @@
       <c r="F309" s="2"/>
       <c r="G309" s="6"/>
     </row>
-    <row r="310" spans="2:7">
+    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B310" s="17"/>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -3538,7 +3566,7 @@
       <c r="F310" s="2"/>
       <c r="G310" s="6"/>
     </row>
-    <row r="311" spans="2:7">
+    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B311" s="17"/>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -3546,7 +3574,7 @@
       <c r="F311" s="2"/>
       <c r="G311" s="6"/>
     </row>
-    <row r="312" spans="2:7">
+    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B312" s="17"/>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -3554,7 +3582,7 @@
       <c r="F312" s="2"/>
       <c r="G312" s="6"/>
     </row>
-    <row r="313" spans="2:7">
+    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B313" s="17"/>
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
@@ -3562,7 +3590,7 @@
       <c r="F313" s="2"/>
       <c r="G313" s="6"/>
     </row>
-    <row r="314" spans="2:7">
+    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B314" s="17"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -3570,7 +3598,7 @@
       <c r="F314" s="2"/>
       <c r="G314" s="6"/>
     </row>
-    <row r="315" spans="2:7">
+    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B315" s="17"/>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -3578,7 +3606,7 @@
       <c r="F315" s="2"/>
       <c r="G315" s="6"/>
     </row>
-    <row r="316" spans="2:7">
+    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B316" s="17"/>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -3586,7 +3614,7 @@
       <c r="F316" s="2"/>
       <c r="G316" s="6"/>
     </row>
-    <row r="317" spans="2:7">
+    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B317" s="17"/>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -3594,7 +3622,7 @@
       <c r="F317" s="2"/>
       <c r="G317" s="6"/>
     </row>
-    <row r="318" spans="2:7">
+    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B318" s="17"/>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -3602,7 +3630,7 @@
       <c r="F318" s="2"/>
       <c r="G318" s="6"/>
     </row>
-    <row r="319" spans="2:7">
+    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B319" s="17"/>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -3610,7 +3638,7 @@
       <c r="F319" s="2"/>
       <c r="G319" s="6"/>
     </row>
-    <row r="320" spans="2:7">
+    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B320" s="17"/>
       <c r="C320" s="2"/>
       <c r="D320" s="2"/>
@@ -3618,7 +3646,7 @@
       <c r="F320" s="2"/>
       <c r="G320" s="6"/>
     </row>
-    <row r="321" spans="2:7">
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B321" s="17"/>
       <c r="C321" s="2"/>
       <c r="D321" s="2"/>
@@ -3626,7 +3654,7 @@
       <c r="F321" s="2"/>
       <c r="G321" s="6"/>
     </row>
-    <row r="322" spans="2:7">
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B322" s="17"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -3634,7 +3662,7 @@
       <c r="F322" s="2"/>
       <c r="G322" s="6"/>
     </row>
-    <row r="323" spans="2:7">
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B323" s="17"/>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -3642,7 +3670,7 @@
       <c r="F323" s="2"/>
       <c r="G323" s="6"/>
     </row>
-    <row r="324" spans="2:7">
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B324" s="17"/>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -3650,7 +3678,7 @@
       <c r="F324" s="2"/>
       <c r="G324" s="6"/>
     </row>
-    <row r="325" spans="2:7">
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B325" s="17"/>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -3658,7 +3686,7 @@
       <c r="F325" s="2"/>
       <c r="G325" s="6"/>
     </row>
-    <row r="326" spans="2:7">
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B326" s="17"/>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -3666,7 +3694,7 @@
       <c r="F326" s="2"/>
       <c r="G326" s="6"/>
     </row>
-    <row r="327" spans="2:7">
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B327" s="17"/>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -3674,7 +3702,7 @@
       <c r="F327" s="2"/>
       <c r="G327" s="6"/>
     </row>
-    <row r="328" spans="2:7">
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B328" s="17"/>
       <c r="C328" s="2"/>
       <c r="D328" s="2"/>
@@ -3682,7 +3710,7 @@
       <c r="F328" s="2"/>
       <c r="G328" s="6"/>
     </row>
-    <row r="329" spans="2:7">
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B329" s="17"/>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -3690,7 +3718,7 @@
       <c r="F329" s="2"/>
       <c r="G329" s="6"/>
     </row>
-    <row r="330" spans="2:7">
+    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B330" s="17"/>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -3698,7 +3726,7 @@
       <c r="F330" s="2"/>
       <c r="G330" s="6"/>
     </row>
-    <row r="331" spans="2:7">
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B331" s="17"/>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -3706,7 +3734,7 @@
       <c r="F331" s="2"/>
       <c r="G331" s="6"/>
     </row>
-    <row r="332" spans="2:7">
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B332" s="17"/>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -3714,7 +3742,7 @@
       <c r="F332" s="2"/>
       <c r="G332" s="6"/>
     </row>
-    <row r="333" spans="2:7">
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B333" s="17"/>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -3722,7 +3750,7 @@
       <c r="F333" s="2"/>
       <c r="G333" s="6"/>
     </row>
-    <row r="334" spans="2:7">
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B334" s="17"/>
       <c r="C334" s="2"/>
       <c r="D334" s="2"/>
@@ -3730,7 +3758,7 @@
       <c r="F334" s="2"/>
       <c r="G334" s="6"/>
     </row>
-    <row r="335" spans="2:7">
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B335" s="17"/>
       <c r="C335" s="2"/>
       <c r="D335" s="2"/>
@@ -3738,7 +3766,7 @@
       <c r="F335" s="2"/>
       <c r="G335" s="6"/>
     </row>
-    <row r="336" spans="2:7">
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B336" s="17"/>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -3746,7 +3774,7 @@
       <c r="F336" s="2"/>
       <c r="G336" s="6"/>
     </row>
-    <row r="337" spans="2:7">
+    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B337" s="17"/>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -3754,7 +3782,7 @@
       <c r="F337" s="2"/>
       <c r="G337" s="6"/>
     </row>
-    <row r="338" spans="2:7">
+    <row r="338" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B338" s="17"/>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -3762,7 +3790,7 @@
       <c r="F338" s="2"/>
       <c r="G338" s="6"/>
     </row>
-    <row r="339" spans="2:7">
+    <row r="339" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B339" s="17"/>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -3770,7 +3798,7 @@
       <c r="F339" s="2"/>
       <c r="G339" s="6"/>
     </row>
-    <row r="340" spans="2:7">
+    <row r="340" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B340" s="17"/>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -3778,7 +3806,7 @@
       <c r="F340" s="2"/>
       <c r="G340" s="6"/>
     </row>
-    <row r="341" spans="2:7">
+    <row r="341" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B341" s="17"/>
       <c r="C341" s="2"/>
       <c r="D341" s="2"/>
@@ -3786,7 +3814,7 @@
       <c r="F341" s="2"/>
       <c r="G341" s="6"/>
     </row>
-    <row r="342" spans="2:7">
+    <row r="342" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B342" s="17"/>
       <c r="C342" s="2"/>
       <c r="D342" s="2"/>
@@ -3794,7 +3822,7 @@
       <c r="F342" s="2"/>
       <c r="G342" s="6"/>
     </row>
-    <row r="343" spans="2:7">
+    <row r="343" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B343" s="17"/>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -3802,7 +3830,7 @@
       <c r="F343" s="2"/>
       <c r="G343" s="6"/>
     </row>
-    <row r="344" spans="2:7">
+    <row r="344" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B344" s="17"/>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -3810,7 +3838,7 @@
       <c r="F344" s="2"/>
       <c r="G344" s="6"/>
     </row>
-    <row r="345" spans="2:7">
+    <row r="345" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B345" s="17"/>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -3818,7 +3846,7 @@
       <c r="F345" s="2"/>
       <c r="G345" s="6"/>
     </row>
-    <row r="346" spans="2:7">
+    <row r="346" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B346" s="17"/>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -3826,7 +3854,7 @@
       <c r="F346" s="2"/>
       <c r="G346" s="6"/>
     </row>
-    <row r="347" spans="2:7">
+    <row r="347" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B347" s="17"/>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -3834,7 +3862,7 @@
       <c r="F347" s="2"/>
       <c r="G347" s="6"/>
     </row>
-    <row r="348" spans="2:7">
+    <row r="348" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B348" s="17"/>
       <c r="C348" s="2"/>
       <c r="D348" s="2"/>
@@ -3842,7 +3870,7 @@
       <c r="F348" s="2"/>
       <c r="G348" s="6"/>
     </row>
-    <row r="349" spans="2:7">
+    <row r="349" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B349" s="17"/>
       <c r="C349" s="2"/>
       <c r="D349" s="2"/>
@@ -3850,7 +3878,7 @@
       <c r="F349" s="2"/>
       <c r="G349" s="6"/>
     </row>
-    <row r="350" spans="2:7">
+    <row r="350" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B350" s="17"/>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -3858,7 +3886,7 @@
       <c r="F350" s="2"/>
       <c r="G350" s="6"/>
     </row>
-    <row r="351" spans="2:7">
+    <row r="351" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B351" s="17"/>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -3866,7 +3894,7 @@
       <c r="F351" s="2"/>
       <c r="G351" s="6"/>
     </row>
-    <row r="352" spans="2:7">
+    <row r="352" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B352" s="17"/>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -3874,7 +3902,7 @@
       <c r="F352" s="2"/>
       <c r="G352" s="6"/>
     </row>
-    <row r="353" spans="2:7">
+    <row r="353" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B353" s="17"/>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -3882,7 +3910,7 @@
       <c r="F353" s="2"/>
       <c r="G353" s="6"/>
     </row>
-    <row r="354" spans="2:7">
+    <row r="354" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B354" s="17"/>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -3890,7 +3918,7 @@
       <c r="F354" s="2"/>
       <c r="G354" s="6"/>
     </row>
-    <row r="355" spans="2:7">
+    <row r="355" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B355" s="17"/>
       <c r="C355" s="2"/>
       <c r="D355" s="2"/>
@@ -3898,7 +3926,7 @@
       <c r="F355" s="2"/>
       <c r="G355" s="6"/>
     </row>
-    <row r="356" spans="2:7">
+    <row r="356" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B356" s="17"/>
       <c r="C356" s="2"/>
       <c r="D356" s="2"/>
@@ -3906,7 +3934,7 @@
       <c r="F356" s="2"/>
       <c r="G356" s="6"/>
     </row>
-    <row r="357" spans="2:7">
+    <row r="357" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B357" s="17"/>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -3914,7 +3942,7 @@
       <c r="F357" s="2"/>
       <c r="G357" s="6"/>
     </row>
-    <row r="358" spans="2:7">
+    <row r="358" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B358" s="17"/>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -3922,7 +3950,7 @@
       <c r="F358" s="2"/>
       <c r="G358" s="6"/>
     </row>
-    <row r="359" spans="2:7">
+    <row r="359" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B359" s="17"/>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -3930,7 +3958,7 @@
       <c r="F359" s="2"/>
       <c r="G359" s="6"/>
     </row>
-    <row r="360" spans="2:7">
+    <row r="360" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B360" s="17"/>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -3938,7 +3966,7 @@
       <c r="F360" s="2"/>
       <c r="G360" s="6"/>
     </row>
-    <row r="361" spans="2:7">
+    <row r="361" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B361" s="17"/>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -3946,7 +3974,7 @@
       <c r="F361" s="2"/>
       <c r="G361" s="6"/>
     </row>
-    <row r="362" spans="2:7">
+    <row r="362" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B362" s="17"/>
       <c r="C362" s="2"/>
       <c r="D362" s="2"/>
@@ -3954,7 +3982,7 @@
       <c r="F362" s="2"/>
       <c r="G362" s="6"/>
     </row>
-    <row r="363" spans="2:7">
+    <row r="363" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B363" s="17"/>
       <c r="C363" s="2"/>
       <c r="D363" s="2"/>
@@ -3962,7 +3990,7 @@
       <c r="F363" s="2"/>
       <c r="G363" s="6"/>
     </row>
-    <row r="364" spans="2:7">
+    <row r="364" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B364" s="17"/>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -3970,7 +3998,7 @@
       <c r="F364" s="2"/>
       <c r="G364" s="6"/>
     </row>
-    <row r="365" spans="2:7">
+    <row r="365" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B365" s="17"/>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -3978,7 +4006,7 @@
       <c r="F365" s="2"/>
       <c r="G365" s="6"/>
     </row>
-    <row r="366" spans="2:7">
+    <row r="366" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B366" s="17"/>
       <c r="C366" s="2"/>
       <c r="D366" s="2"/>
@@ -3986,7 +4014,7 @@
       <c r="F366" s="2"/>
       <c r="G366" s="6"/>
     </row>
-    <row r="367" spans="2:7">
+    <row r="367" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B367" s="17"/>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -3994,7 +4022,7 @@
       <c r="F367" s="2"/>
       <c r="G367" s="6"/>
     </row>
-    <row r="368" spans="2:7">
+    <row r="368" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B368" s="17"/>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -4002,7 +4030,7 @@
       <c r="F368" s="2"/>
       <c r="G368" s="6"/>
     </row>
-    <row r="369" spans="2:7">
+    <row r="369" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B369" s="17"/>
       <c r="C369" s="2"/>
       <c r="D369" s="2"/>
@@ -4010,7 +4038,7 @@
       <c r="F369" s="2"/>
       <c r="G369" s="6"/>
     </row>
-    <row r="370" spans="2:7">
+    <row r="370" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B370" s="17"/>
       <c r="C370" s="2"/>
       <c r="D370" s="2"/>
@@ -4018,7 +4046,7 @@
       <c r="F370" s="2"/>
       <c r="G370" s="6"/>
     </row>
-    <row r="371" spans="2:7">
+    <row r="371" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B371" s="17"/>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -4026,7 +4054,7 @@
       <c r="F371" s="2"/>
       <c r="G371" s="6"/>
     </row>
-    <row r="372" spans="2:7">
+    <row r="372" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B372" s="17"/>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -4034,7 +4062,7 @@
       <c r="F372" s="2"/>
       <c r="G372" s="6"/>
     </row>
-    <row r="373" spans="2:7">
+    <row r="373" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B373" s="17"/>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -4042,7 +4070,7 @@
       <c r="F373" s="2"/>
       <c r="G373" s="6"/>
     </row>
-    <row r="374" spans="2:7">
+    <row r="374" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B374" s="17"/>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -4050,7 +4078,7 @@
       <c r="F374" s="2"/>
       <c r="G374" s="6"/>
     </row>
-    <row r="375" spans="2:7">
+    <row r="375" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B375" s="17"/>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -4058,7 +4086,7 @@
       <c r="F375" s="2"/>
       <c r="G375" s="6"/>
     </row>
-    <row r="376" spans="2:7">
+    <row r="376" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B376" s="17"/>
       <c r="C376" s="2"/>
       <c r="D376" s="2"/>
@@ -4066,7 +4094,7 @@
       <c r="F376" s="2"/>
       <c r="G376" s="6"/>
     </row>
-    <row r="377" spans="2:7">
+    <row r="377" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B377" s="17"/>
       <c r="C377" s="2"/>
       <c r="D377" s="2"/>
@@ -4074,7 +4102,7 @@
       <c r="F377" s="2"/>
       <c r="G377" s="6"/>
     </row>
-    <row r="378" spans="2:7">
+    <row r="378" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B378" s="17"/>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -4082,7 +4110,7 @@
       <c r="F378" s="2"/>
       <c r="G378" s="6"/>
     </row>
-    <row r="379" spans="2:7">
+    <row r="379" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B379" s="17"/>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -4090,7 +4118,7 @@
       <c r="F379" s="2"/>
       <c r="G379" s="6"/>
     </row>
-    <row r="380" spans="2:7">
+    <row r="380" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B380" s="17"/>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -4098,7 +4126,7 @@
       <c r="F380" s="2"/>
       <c r="G380" s="6"/>
     </row>
-    <row r="381" spans="2:7">
+    <row r="381" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B381" s="17"/>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -4106,7 +4134,7 @@
       <c r="F381" s="2"/>
       <c r="G381" s="6"/>
     </row>
-    <row r="382" spans="2:7">
+    <row r="382" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B382" s="17"/>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -4114,7 +4142,7 @@
       <c r="F382" s="2"/>
       <c r="G382" s="6"/>
     </row>
-    <row r="383" spans="2:7">
+    <row r="383" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B383" s="17"/>
       <c r="C383" s="2"/>
       <c r="D383" s="2"/>
@@ -4122,7 +4150,7 @@
       <c r="F383" s="2"/>
       <c r="G383" s="6"/>
     </row>
-    <row r="384" spans="2:7">
+    <row r="384" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B384" s="17"/>
       <c r="C384" s="2"/>
       <c r="D384" s="2"/>
@@ -4130,7 +4158,7 @@
       <c r="F384" s="2"/>
       <c r="G384" s="6"/>
     </row>
-    <row r="385" spans="2:7">
+    <row r="385" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B385" s="17"/>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -4138,7 +4166,7 @@
       <c r="F385" s="2"/>
       <c r="G385" s="6"/>
     </row>
-    <row r="386" spans="2:7">
+    <row r="386" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B386" s="17"/>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -4146,7 +4174,7 @@
       <c r="F386" s="2"/>
       <c r="G386" s="6"/>
     </row>
-    <row r="387" spans="2:7">
+    <row r="387" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B387" s="17"/>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -4154,7 +4182,7 @@
       <c r="F387" s="2"/>
       <c r="G387" s="6"/>
     </row>
-    <row r="388" spans="2:7">
+    <row r="388" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B388" s="17"/>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -4162,7 +4190,7 @@
       <c r="F388" s="2"/>
       <c r="G388" s="6"/>
     </row>
-    <row r="389" spans="2:7">
+    <row r="389" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B389" s="17"/>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -4170,7 +4198,7 @@
       <c r="F389" s="2"/>
       <c r="G389" s="6"/>
     </row>
-    <row r="390" spans="2:7">
+    <row r="390" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B390" s="17"/>
       <c r="C390" s="2"/>
       <c r="D390" s="2"/>
@@ -4178,7 +4206,7 @@
       <c r="F390" s="2"/>
       <c r="G390" s="6"/>
     </row>
-    <row r="391" spans="2:7">
+    <row r="391" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B391" s="17"/>
       <c r="C391" s="2"/>
       <c r="D391" s="2"/>
@@ -4186,7 +4214,7 @@
       <c r="F391" s="2"/>
       <c r="G391" s="6"/>
     </row>
-    <row r="392" spans="2:7">
+    <row r="392" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B392" s="17"/>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -4194,7 +4222,7 @@
       <c r="F392" s="2"/>
       <c r="G392" s="6"/>
     </row>
-    <row r="393" spans="2:7">
+    <row r="393" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B393" s="17"/>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -4202,7 +4230,7 @@
       <c r="F393" s="2"/>
       <c r="G393" s="6"/>
     </row>
-    <row r="394" spans="2:7">
+    <row r="394" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B394" s="17"/>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -4210,7 +4238,7 @@
       <c r="F394" s="2"/>
       <c r="G394" s="6"/>
     </row>
-    <row r="395" spans="2:7">
+    <row r="395" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B395" s="17"/>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -4218,7 +4246,7 @@
       <c r="F395" s="2"/>
       <c r="G395" s="6"/>
     </row>
-    <row r="396" spans="2:7">
+    <row r="396" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B396" s="17"/>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -4226,7 +4254,7 @@
       <c r="F396" s="2"/>
       <c r="G396" s="6"/>
     </row>
-    <row r="397" spans="2:7">
+    <row r="397" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B397" s="17"/>
       <c r="C397" s="2"/>
       <c r="D397" s="2"/>
@@ -4234,7 +4262,7 @@
       <c r="F397" s="2"/>
       <c r="G397" s="6"/>
     </row>
-    <row r="398" spans="2:7">
+    <row r="398" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B398" s="17"/>
       <c r="C398" s="2"/>
       <c r="D398" s="2"/>
@@ -4242,7 +4270,7 @@
       <c r="F398" s="2"/>
       <c r="G398" s="6"/>
     </row>
-    <row r="399" spans="2:7">
+    <row r="399" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B399" s="17"/>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -4250,7 +4278,7 @@
       <c r="F399" s="2"/>
       <c r="G399" s="6"/>
     </row>
-    <row r="400" spans="2:7">
+    <row r="400" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B400" s="17"/>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -4258,7 +4286,7 @@
       <c r="F400" s="2"/>
       <c r="G400" s="6"/>
     </row>
-    <row r="401" spans="2:7">
+    <row r="401" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B401" s="17"/>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -4266,7 +4294,7 @@
       <c r="F401" s="2"/>
       <c r="G401" s="6"/>
     </row>
-    <row r="402" spans="2:7">
+    <row r="402" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B402" s="17"/>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -4274,7 +4302,7 @@
       <c r="F402" s="2"/>
       <c r="G402" s="6"/>
     </row>
-    <row r="403" spans="2:7">
+    <row r="403" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B403" s="17"/>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -4282,7 +4310,7 @@
       <c r="F403" s="2"/>
       <c r="G403" s="6"/>
     </row>
-    <row r="404" spans="2:7">
+    <row r="404" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B404" s="17"/>
       <c r="C404" s="2"/>
       <c r="D404" s="2"/>
@@ -4290,7 +4318,7 @@
       <c r="F404" s="2"/>
       <c r="G404" s="6"/>
     </row>
-    <row r="405" spans="2:7">
+    <row r="405" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B405" s="17"/>
       <c r="C405" s="2"/>
       <c r="D405" s="2"/>
@@ -4298,7 +4326,7 @@
       <c r="F405" s="2"/>
       <c r="G405" s="6"/>
     </row>
-    <row r="406" spans="2:7">
+    <row r="406" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B406" s="17"/>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -4306,7 +4334,7 @@
       <c r="F406" s="2"/>
       <c r="G406" s="6"/>
     </row>
-    <row r="407" spans="2:7">
+    <row r="407" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B407" s="17"/>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -4314,7 +4342,7 @@
       <c r="F407" s="2"/>
       <c r="G407" s="6"/>
     </row>
-    <row r="408" spans="2:7">
+    <row r="408" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B408" s="17"/>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -4322,7 +4350,7 @@
       <c r="F408" s="2"/>
       <c r="G408" s="6"/>
     </row>
-    <row r="409" spans="2:7">
+    <row r="409" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B409" s="17"/>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -4330,7 +4358,7 @@
       <c r="F409" s="2"/>
       <c r="G409" s="6"/>
     </row>
-    <row r="410" spans="2:7">
+    <row r="410" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B410" s="17"/>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -4338,7 +4366,7 @@
       <c r="F410" s="2"/>
       <c r="G410" s="6"/>
     </row>
-    <row r="411" spans="2:7">
+    <row r="411" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B411" s="17"/>
       <c r="C411" s="2"/>
       <c r="D411" s="2"/>
@@ -4346,7 +4374,7 @@
       <c r="F411" s="2"/>
       <c r="G411" s="6"/>
     </row>
-    <row r="412" spans="2:7">
+    <row r="412" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B412" s="17"/>
       <c r="C412" s="2"/>
       <c r="D412" s="2"/>
@@ -4354,7 +4382,7 @@
       <c r="F412" s="2"/>
       <c r="G412" s="6"/>
     </row>
-    <row r="413" spans="2:7">
+    <row r="413" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B413" s="17"/>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -4362,7 +4390,7 @@
       <c r="F413" s="2"/>
       <c r="G413" s="6"/>
     </row>
-    <row r="414" spans="2:7">
+    <row r="414" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B414" s="17"/>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -4370,7 +4398,7 @@
       <c r="F414" s="2"/>
       <c r="G414" s="6"/>
     </row>
-    <row r="415" spans="2:7">
+    <row r="415" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B415" s="17"/>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -4378,7 +4406,7 @@
       <c r="F415" s="2"/>
       <c r="G415" s="6"/>
     </row>
-    <row r="416" spans="2:7">
+    <row r="416" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B416" s="17"/>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -4386,7 +4414,7 @@
       <c r="F416" s="2"/>
       <c r="G416" s="6"/>
     </row>
-    <row r="417" spans="2:7">
+    <row r="417" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B417" s="17"/>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -4394,7 +4422,7 @@
       <c r="F417" s="2"/>
       <c r="G417" s="6"/>
     </row>
-    <row r="418" spans="2:7">
+    <row r="418" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B418" s="17"/>
       <c r="C418" s="2"/>
       <c r="D418" s="2"/>
@@ -4402,7 +4430,7 @@
       <c r="F418" s="2"/>
       <c r="G418" s="6"/>
     </row>
-    <row r="419" spans="2:7">
+    <row r="419" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B419" s="17"/>
       <c r="C419" s="2"/>
       <c r="D419" s="2"/>
@@ -4410,7 +4438,7 @@
       <c r="F419" s="2"/>
       <c r="G419" s="6"/>
     </row>
-    <row r="420" spans="2:7">
+    <row r="420" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B420" s="17"/>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -4418,7 +4446,7 @@
       <c r="F420" s="2"/>
       <c r="G420" s="6"/>
     </row>
-    <row r="421" spans="2:7">
+    <row r="421" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B421" s="17"/>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -4426,7 +4454,7 @@
       <c r="F421" s="2"/>
       <c r="G421" s="6"/>
     </row>
-    <row r="422" spans="2:7">
+    <row r="422" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B422" s="17"/>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -4434,7 +4462,7 @@
       <c r="F422" s="2"/>
       <c r="G422" s="6"/>
     </row>
-    <row r="423" spans="2:7">
+    <row r="423" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B423" s="17"/>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -4442,7 +4470,7 @@
       <c r="F423" s="2"/>
       <c r="G423" s="6"/>
     </row>
-    <row r="424" spans="2:7">
+    <row r="424" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B424" s="17"/>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -4450,7 +4478,7 @@
       <c r="F424" s="2"/>
       <c r="G424" s="6"/>
     </row>
-    <row r="425" spans="2:7">
+    <row r="425" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B425" s="17"/>
       <c r="C425" s="2"/>
       <c r="D425" s="2"/>
@@ -4458,7 +4486,7 @@
       <c r="F425" s="2"/>
       <c r="G425" s="6"/>
     </row>
-    <row r="426" spans="2:7">
+    <row r="426" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B426" s="17"/>
       <c r="C426" s="2"/>
       <c r="D426" s="2"/>
@@ -4466,7 +4494,7 @@
       <c r="F426" s="2"/>
       <c r="G426" s="6"/>
     </row>
-    <row r="427" spans="2:7">
+    <row r="427" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B427" s="17"/>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -4474,7 +4502,7 @@
       <c r="F427" s="2"/>
       <c r="G427" s="6"/>
     </row>
-    <row r="428" spans="2:7">
+    <row r="428" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B428" s="17"/>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -4482,7 +4510,7 @@
       <c r="F428" s="2"/>
       <c r="G428" s="6"/>
     </row>
-    <row r="429" spans="2:7">
+    <row r="429" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B429" s="17"/>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -4490,7 +4518,7 @@
       <c r="F429" s="2"/>
       <c r="G429" s="6"/>
     </row>
-    <row r="430" spans="2:7">
+    <row r="430" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B430" s="17"/>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -4498,7 +4526,7 @@
       <c r="F430" s="2"/>
       <c r="G430" s="6"/>
     </row>
-    <row r="431" spans="2:7">
+    <row r="431" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B431" s="17"/>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -4506,7 +4534,7 @@
       <c r="F431" s="2"/>
       <c r="G431" s="6"/>
     </row>
-    <row r="432" spans="2:7">
+    <row r="432" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B432" s="17"/>
       <c r="C432" s="2"/>
       <c r="D432" s="2"/>
@@ -4514,7 +4542,7 @@
       <c r="F432" s="2"/>
       <c r="G432" s="6"/>
     </row>
-    <row r="433" spans="2:7">
+    <row r="433" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B433" s="17"/>
       <c r="C433" s="2"/>
       <c r="D433" s="2"/>
@@ -4522,7 +4550,7 @@
       <c r="F433" s="2"/>
       <c r="G433" s="6"/>
     </row>
-    <row r="434" spans="2:7">
+    <row r="434" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B434" s="17"/>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -4530,7 +4558,7 @@
       <c r="F434" s="2"/>
       <c r="G434" s="6"/>
     </row>
-    <row r="435" spans="2:7">
+    <row r="435" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B435" s="17"/>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -4538,7 +4566,7 @@
       <c r="F435" s="2"/>
       <c r="G435" s="6"/>
     </row>
-    <row r="436" spans="2:7">
+    <row r="436" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B436" s="17"/>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -4546,7 +4574,7 @@
       <c r="F436" s="2"/>
       <c r="G436" s="6"/>
     </row>
-    <row r="437" spans="2:7">
+    <row r="437" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B437" s="17"/>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -4554,7 +4582,7 @@
       <c r="F437" s="2"/>
       <c r="G437" s="6"/>
     </row>
-    <row r="438" spans="2:7">
+    <row r="438" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B438" s="17"/>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -4562,7 +4590,7 @@
       <c r="F438" s="2"/>
       <c r="G438" s="6"/>
     </row>
-    <row r="439" spans="2:7">
+    <row r="439" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B439" s="17"/>
       <c r="C439" s="2"/>
       <c r="D439" s="2"/>
@@ -4570,7 +4598,7 @@
       <c r="F439" s="2"/>
       <c r="G439" s="6"/>
     </row>
-    <row r="440" spans="2:7">
+    <row r="440" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B440" s="17"/>
       <c r="C440" s="2"/>
       <c r="D440" s="2"/>
@@ -4578,7 +4606,7 @@
       <c r="F440" s="2"/>
       <c r="G440" s="6"/>
     </row>
-    <row r="441" spans="2:7">
+    <row r="441" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B441" s="17"/>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -4586,7 +4614,7 @@
       <c r="F441" s="2"/>
       <c r="G441" s="6"/>
     </row>
-    <row r="442" spans="2:7">
+    <row r="442" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B442" s="17"/>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -4594,7 +4622,7 @@
       <c r="F442" s="2"/>
       <c r="G442" s="6"/>
     </row>
-    <row r="443" spans="2:7">
+    <row r="443" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B443" s="17"/>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -4602,7 +4630,7 @@
       <c r="F443" s="2"/>
       <c r="G443" s="6"/>
     </row>
-    <row r="444" spans="2:7">
+    <row r="444" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B444" s="17"/>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -4610,7 +4638,7 @@
       <c r="F444" s="2"/>
       <c r="G444" s="6"/>
     </row>
-    <row r="445" spans="2:7">
+    <row r="445" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B445" s="17"/>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -4618,7 +4646,7 @@
       <c r="F445" s="2"/>
       <c r="G445" s="6"/>
     </row>
-    <row r="446" spans="2:7">
+    <row r="446" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B446" s="17"/>
       <c r="C446" s="2"/>
       <c r="D446" s="2"/>
@@ -4626,7 +4654,7 @@
       <c r="F446" s="2"/>
       <c r="G446" s="6"/>
     </row>
-    <row r="447" spans="2:7">
+    <row r="447" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B447" s="17"/>
       <c r="C447" s="2"/>
       <c r="D447" s="2"/>
@@ -4634,7 +4662,7 @@
       <c r="F447" s="2"/>
       <c r="G447" s="6"/>
     </row>
-    <row r="448" spans="2:7">
+    <row r="448" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B448" s="17"/>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -4642,7 +4670,7 @@
       <c r="F448" s="2"/>
       <c r="G448" s="6"/>
     </row>
-    <row r="449" spans="2:7">
+    <row r="449" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B449" s="17"/>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -4650,7 +4678,7 @@
       <c r="F449" s="2"/>
       <c r="G449" s="6"/>
     </row>
-    <row r="450" spans="2:7">
+    <row r="450" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B450" s="17"/>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -4658,7 +4686,7 @@
       <c r="F450" s="2"/>
       <c r="G450" s="6"/>
     </row>
-    <row r="451" spans="2:7">
+    <row r="451" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B451" s="17"/>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -4666,7 +4694,7 @@
       <c r="F451" s="2"/>
       <c r="G451" s="6"/>
     </row>
-    <row r="452" spans="2:7">
+    <row r="452" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B452" s="17"/>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -4674,7 +4702,7 @@
       <c r="F452" s="2"/>
       <c r="G452" s="6"/>
     </row>
-    <row r="453" spans="2:7">
+    <row r="453" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B453" s="17"/>
       <c r="C453" s="2"/>
       <c r="D453" s="2"/>
@@ -4682,7 +4710,7 @@
       <c r="F453" s="2"/>
       <c r="G453" s="6"/>
     </row>
-    <row r="454" spans="2:7">
+    <row r="454" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B454" s="17"/>
       <c r="C454" s="2"/>
       <c r="D454" s="2"/>
@@ -4690,7 +4718,7 @@
       <c r="F454" s="2"/>
       <c r="G454" s="6"/>
     </row>
-    <row r="455" spans="2:7">
+    <row r="455" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B455" s="17"/>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -4698,7 +4726,7 @@
       <c r="F455" s="2"/>
       <c r="G455" s="6"/>
     </row>
-    <row r="456" spans="2:7">
+    <row r="456" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B456" s="17"/>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -4706,7 +4734,7 @@
       <c r="F456" s="2"/>
       <c r="G456" s="6"/>
     </row>
-    <row r="457" spans="2:7">
+    <row r="457" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B457" s="17"/>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -4714,7 +4742,7 @@
       <c r="F457" s="2"/>
       <c r="G457" s="6"/>
     </row>
-    <row r="458" spans="2:7">
+    <row r="458" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B458" s="17"/>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -4722,7 +4750,7 @@
       <c r="F458" s="2"/>
       <c r="G458" s="6"/>
     </row>
-    <row r="459" spans="2:7">
+    <row r="459" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B459" s="17"/>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -4730,7 +4758,7 @@
       <c r="F459" s="2"/>
       <c r="G459" s="6"/>
     </row>
-    <row r="460" spans="2:7">
+    <row r="460" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B460" s="17"/>
       <c r="C460" s="2"/>
       <c r="D460" s="2"/>
@@ -4738,7 +4766,7 @@
       <c r="F460" s="2"/>
       <c r="G460" s="6"/>
     </row>
-    <row r="461" spans="2:7">
+    <row r="461" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B461" s="17"/>
       <c r="C461" s="2"/>
       <c r="D461" s="2"/>
@@ -4746,7 +4774,7 @@
       <c r="F461" s="2"/>
       <c r="G461" s="6"/>
     </row>
-    <row r="462" spans="2:7">
+    <row r="462" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B462" s="17"/>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -4754,7 +4782,7 @@
       <c r="F462" s="2"/>
       <c r="G462" s="6"/>
     </row>
-    <row r="463" spans="2:7">
+    <row r="463" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B463" s="17"/>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -4762,7 +4790,7 @@
       <c r="F463" s="2"/>
       <c r="G463" s="6"/>
     </row>
-    <row r="464" spans="2:7">
+    <row r="464" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B464" s="17"/>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -4770,7 +4798,7 @@
       <c r="F464" s="2"/>
       <c r="G464" s="6"/>
     </row>
-    <row r="465" spans="2:7">
+    <row r="465" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B465" s="17"/>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -4778,7 +4806,7 @@
       <c r="F465" s="2"/>
       <c r="G465" s="6"/>
     </row>
-    <row r="466" spans="2:7">
+    <row r="466" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B466" s="17"/>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -4786,7 +4814,7 @@
       <c r="F466" s="2"/>
       <c r="G466" s="6"/>
     </row>
-    <row r="467" spans="2:7">
+    <row r="467" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B467" s="17"/>
       <c r="C467" s="2"/>
       <c r="D467" s="2"/>
@@ -4794,7 +4822,7 @@
       <c r="F467" s="2"/>
       <c r="G467" s="6"/>
     </row>
-    <row r="468" spans="2:7">
+    <row r="468" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B468" s="17"/>
       <c r="C468" s="2"/>
       <c r="D468" s="2"/>
@@ -4802,7 +4830,7 @@
       <c r="F468" s="2"/>
       <c r="G468" s="6"/>
     </row>
-    <row r="469" spans="2:7">
+    <row r="469" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B469" s="17"/>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -4810,7 +4838,7 @@
       <c r="F469" s="2"/>
       <c r="G469" s="6"/>
     </row>
-    <row r="470" spans="2:7">
+    <row r="470" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B470" s="17"/>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -4818,7 +4846,7 @@
       <c r="F470" s="2"/>
       <c r="G470" s="6"/>
     </row>
-    <row r="471" spans="2:7">
+    <row r="471" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B471" s="17"/>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -4826,7 +4854,7 @@
       <c r="F471" s="2"/>
       <c r="G471" s="6"/>
     </row>
-    <row r="472" spans="2:7">
+    <row r="472" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B472" s="17"/>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -4834,7 +4862,7 @@
       <c r="F472" s="2"/>
       <c r="G472" s="6"/>
     </row>
-    <row r="473" spans="2:7">
+    <row r="473" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B473" s="17"/>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -4842,7 +4870,7 @@
       <c r="F473" s="2"/>
       <c r="G473" s="6"/>
     </row>
-    <row r="474" spans="2:7">
+    <row r="474" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B474" s="17"/>
       <c r="C474" s="2"/>
       <c r="D474" s="2"/>
@@ -4850,7 +4878,7 @@
       <c r="F474" s="2"/>
       <c r="G474" s="6"/>
     </row>
-    <row r="475" spans="2:7">
+    <row r="475" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B475" s="17"/>
       <c r="C475" s="2"/>
       <c r="D475" s="2"/>
@@ -4858,7 +4886,7 @@
       <c r="F475" s="2"/>
       <c r="G475" s="6"/>
     </row>
-    <row r="476" spans="2:7">
+    <row r="476" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B476" s="17"/>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -4866,7 +4894,7 @@
       <c r="F476" s="2"/>
       <c r="G476" s="6"/>
     </row>
-    <row r="477" spans="2:7">
+    <row r="477" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B477" s="17"/>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -4874,7 +4902,7 @@
       <c r="F477" s="2"/>
       <c r="G477" s="6"/>
     </row>
-    <row r="478" spans="2:7">
+    <row r="478" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B478" s="17"/>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -4882,7 +4910,7 @@
       <c r="F478" s="2"/>
       <c r="G478" s="6"/>
     </row>
-    <row r="479" spans="2:7">
+    <row r="479" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B479" s="17"/>
       <c r="C479" s="2"/>
       <c r="D479" s="2"/>
@@ -4890,7 +4918,7 @@
       <c r="F479" s="2"/>
       <c r="G479" s="6"/>
     </row>
-    <row r="480" spans="2:7">
+    <row r="480" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B480" s="17"/>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -4898,7 +4926,7 @@
       <c r="F480" s="2"/>
       <c r="G480" s="6"/>
     </row>
-    <row r="481" spans="2:7">
+    <row r="481" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B481" s="17"/>
       <c r="C481" s="2"/>
       <c r="D481" s="2"/>
@@ -4906,7 +4934,7 @@
       <c r="F481" s="2"/>
       <c r="G481" s="6"/>
     </row>
-    <row r="482" spans="2:7">
+    <row r="482" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B482" s="17"/>
       <c r="C482" s="2"/>
       <c r="D482" s="2"/>
@@ -4914,7 +4942,7 @@
       <c r="F482" s="2"/>
       <c r="G482" s="6"/>
     </row>
-    <row r="483" spans="2:7">
+    <row r="483" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B483" s="17"/>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -4922,7 +4950,7 @@
       <c r="F483" s="2"/>
       <c r="G483" s="6"/>
     </row>
-    <row r="484" spans="2:7">
+    <row r="484" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B484" s="17"/>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -4930,7 +4958,7 @@
       <c r="F484" s="2"/>
       <c r="G484" s="6"/>
     </row>
-    <row r="485" spans="2:7">
+    <row r="485" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B485" s="17"/>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -4938,7 +4966,7 @@
       <c r="F485" s="2"/>
       <c r="G485" s="6"/>
     </row>
-    <row r="486" spans="2:7">
+    <row r="486" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B486" s="17"/>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -4946,7 +4974,7 @@
       <c r="F486" s="2"/>
       <c r="G486" s="6"/>
     </row>
-    <row r="487" spans="2:7">
+    <row r="487" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B487" s="17"/>
       <c r="C487" s="2"/>
       <c r="D487" s="2"/>
@@ -4954,7 +4982,7 @@
       <c r="F487" s="2"/>
       <c r="G487" s="6"/>
     </row>
-    <row r="488" spans="2:7">
+    <row r="488" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B488" s="17"/>
       <c r="C488" s="2"/>
       <c r="D488" s="2"/>
@@ -4962,7 +4990,7 @@
       <c r="F488" s="2"/>
       <c r="G488" s="6"/>
     </row>
-    <row r="489" spans="2:7">
+    <row r="489" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B489" s="17"/>
       <c r="C489" s="2"/>
       <c r="D489" s="2"/>
@@ -4970,7 +4998,7 @@
       <c r="F489" s="2"/>
       <c r="G489" s="6"/>
     </row>
-    <row r="490" spans="2:7">
+    <row r="490" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B490" s="17"/>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -4978,7 +5006,7 @@
       <c r="F490" s="2"/>
       <c r="G490" s="6"/>
     </row>
-    <row r="491" spans="2:7">
+    <row r="491" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B491" s="17"/>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -4986,7 +5014,7 @@
       <c r="F491" s="2"/>
       <c r="G491" s="6"/>
     </row>
-    <row r="492" spans="2:7">
+    <row r="492" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B492" s="17"/>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -4994,7 +5022,7 @@
       <c r="F492" s="2"/>
       <c r="G492" s="6"/>
     </row>
-    <row r="493" spans="2:7">
+    <row r="493" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B493" s="17"/>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -5002,7 +5030,7 @@
       <c r="F493" s="2"/>
       <c r="G493" s="6"/>
     </row>
-    <row r="494" spans="2:7">
+    <row r="494" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B494" s="17"/>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -5010,7 +5038,7 @@
       <c r="F494" s="2"/>
       <c r="G494" s="6"/>
     </row>
-    <row r="495" spans="2:7">
+    <row r="495" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B495" s="17"/>
       <c r="C495" s="2"/>
       <c r="D495" s="2"/>
@@ -5018,7 +5046,7 @@
       <c r="F495" s="2"/>
       <c r="G495" s="6"/>
     </row>
-    <row r="496" spans="2:7">
+    <row r="496" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B496" s="17"/>
       <c r="C496" s="2"/>
       <c r="D496" s="2"/>
@@ -5026,7 +5054,7 @@
       <c r="F496" s="2"/>
       <c r="G496" s="6"/>
     </row>
-    <row r="497" spans="2:7">
+    <row r="497" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B497" s="17"/>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -5034,7 +5062,7 @@
       <c r="F497" s="2"/>
       <c r="G497" s="6"/>
     </row>
-    <row r="498" spans="2:7">
+    <row r="498" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B498" s="17"/>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -5042,7 +5070,7 @@
       <c r="F498" s="2"/>
       <c r="G498" s="6"/>
     </row>
-    <row r="499" spans="2:7">
+    <row r="499" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B499" s="17"/>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -5050,7 +5078,7 @@
       <c r="F499" s="2"/>
       <c r="G499" s="6"/>
     </row>
-    <row r="500" spans="2:7">
+    <row r="500" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B500" s="17"/>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -5058,7 +5086,7 @@
       <c r="F500" s="2"/>
       <c r="G500" s="6"/>
     </row>
-    <row r="501" spans="2:7">
+    <row r="501" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B501" s="17"/>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -5066,7 +5094,7 @@
       <c r="F501" s="2"/>
       <c r="G501" s="6"/>
     </row>
-    <row r="502" spans="2:7">
+    <row r="502" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B502" s="17"/>
       <c r="C502" s="2"/>
       <c r="D502" s="2"/>
@@ -5074,7 +5102,7 @@
       <c r="F502" s="2"/>
       <c r="G502" s="6"/>
     </row>
-    <row r="503" spans="2:7">
+    <row r="503" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B503" s="17"/>
       <c r="C503" s="2"/>
       <c r="D503" s="2"/>
@@ -5082,7 +5110,7 @@
       <c r="F503" s="2"/>
       <c r="G503" s="6"/>
     </row>
-    <row r="504" spans="2:7">
+    <row r="504" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B504" s="17"/>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -5090,7 +5118,7 @@
       <c r="F504" s="2"/>
       <c r="G504" s="6"/>
     </row>
-    <row r="505" spans="2:7">
+    <row r="505" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B505" s="17"/>
       <c r="C505" s="2"/>
       <c r="D505" s="2"/>
@@ -5098,7 +5126,7 @@
       <c r="F505" s="2"/>
       <c r="G505" s="6"/>
     </row>
-    <row r="506" spans="2:7">
+    <row r="506" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B506" s="17"/>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -5106,7 +5134,7 @@
       <c r="F506" s="2"/>
       <c r="G506" s="6"/>
     </row>
-    <row r="507" spans="2:7">
+    <row r="507" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B507" s="17"/>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -5114,7 +5142,7 @@
       <c r="F507" s="2"/>
       <c r="G507" s="6"/>
     </row>
-    <row r="508" spans="2:7">
+    <row r="508" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B508" s="17"/>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -5122,7 +5150,7 @@
       <c r="F508" s="2"/>
       <c r="G508" s="6"/>
     </row>
-    <row r="509" spans="2:7">
+    <row r="509" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B509" s="17"/>
       <c r="C509" s="2"/>
       <c r="D509" s="2"/>
@@ -5130,7 +5158,7 @@
       <c r="F509" s="2"/>
       <c r="G509" s="6"/>
     </row>
-    <row r="510" spans="2:7">
+    <row r="510" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B510" s="17"/>
       <c r="C510" s="2"/>
       <c r="D510" s="2"/>
@@ -5138,7 +5166,7 @@
       <c r="F510" s="2"/>
       <c r="G510" s="6"/>
     </row>
-    <row r="511" spans="2:7">
+    <row r="511" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B511" s="17"/>
       <c r="C511" s="2"/>
       <c r="D511" s="2"/>
@@ -5146,7 +5174,7 @@
       <c r="F511" s="2"/>
       <c r="G511" s="6"/>
     </row>
-    <row r="512" spans="2:7">
+    <row r="512" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B512" s="17"/>
       <c r="C512" s="2"/>
       <c r="D512" s="2"/>
@@ -5154,7 +5182,7 @@
       <c r="F512" s="2"/>
       <c r="G512" s="6"/>
     </row>
-    <row r="513" spans="2:7">
+    <row r="513" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B513" s="17"/>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -5162,7 +5190,7 @@
       <c r="F513" s="2"/>
       <c r="G513" s="6"/>
     </row>
-    <row r="514" spans="2:7">
+    <row r="514" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B514" s="17"/>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -5170,7 +5198,7 @@
       <c r="F514" s="2"/>
       <c r="G514" s="6"/>
     </row>
-    <row r="515" spans="2:7">
+    <row r="515" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B515" s="17"/>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -5178,7 +5206,7 @@
       <c r="F515" s="2"/>
       <c r="G515" s="6"/>
     </row>
-    <row r="516" spans="2:7">
+    <row r="516" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B516" s="17"/>
       <c r="C516" s="2"/>
       <c r="D516" s="2"/>
@@ -5186,7 +5214,7 @@
       <c r="F516" s="2"/>
       <c r="G516" s="6"/>
     </row>
-    <row r="517" spans="2:7">
+    <row r="517" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B517" s="17"/>
       <c r="C517" s="2"/>
       <c r="D517" s="2"/>
@@ -5194,7 +5222,7 @@
       <c r="F517" s="2"/>
       <c r="G517" s="6"/>
     </row>
-    <row r="518" spans="2:7">
+    <row r="518" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B518" s="17"/>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -5202,7 +5230,7 @@
       <c r="F518" s="2"/>
       <c r="G518" s="6"/>
     </row>
-    <row r="519" spans="2:7">
+    <row r="519" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B519" s="17"/>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -5210,7 +5238,7 @@
       <c r="F519" s="2"/>
       <c r="G519" s="6"/>
     </row>
-    <row r="520" spans="2:7">
+    <row r="520" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B520" s="17"/>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -5218,7 +5246,7 @@
       <c r="F520" s="2"/>
       <c r="G520" s="6"/>
     </row>
-    <row r="521" spans="2:7">
+    <row r="521" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B521" s="17"/>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -5226,7 +5254,7 @@
       <c r="F521" s="2"/>
       <c r="G521" s="6"/>
     </row>
-    <row r="522" spans="2:7">
+    <row r="522" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B522" s="17"/>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -5234,7 +5262,7 @@
       <c r="F522" s="2"/>
       <c r="G522" s="6"/>
     </row>
-    <row r="523" spans="2:7">
+    <row r="523" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B523" s="17"/>
       <c r="C523" s="2"/>
       <c r="D523" s="2"/>
@@ -5242,7 +5270,7 @@
       <c r="F523" s="2"/>
       <c r="G523" s="6"/>
     </row>
-    <row r="524" spans="2:7">
+    <row r="524" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B524" s="17"/>
       <c r="C524" s="2"/>
       <c r="D524" s="2"/>
@@ -5250,7 +5278,7 @@
       <c r="F524" s="2"/>
       <c r="G524" s="6"/>
     </row>
-    <row r="525" spans="2:7">
+    <row r="525" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B525" s="17"/>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -5258,7 +5286,7 @@
       <c r="F525" s="2"/>
       <c r="G525" s="6"/>
     </row>
-    <row r="526" spans="2:7">
+    <row r="526" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B526" s="17"/>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -5266,7 +5294,7 @@
       <c r="F526" s="2"/>
       <c r="G526" s="6"/>
     </row>
-    <row r="527" spans="2:7">
+    <row r="527" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B527" s="17"/>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -5274,7 +5302,7 @@
       <c r="F527" s="2"/>
       <c r="G527" s="6"/>
     </row>
-    <row r="528" spans="2:7">
+    <row r="528" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B528" s="17"/>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -5282,7 +5310,7 @@
       <c r="F528" s="2"/>
       <c r="G528" s="6"/>
     </row>
-    <row r="529" spans="2:7">
+    <row r="529" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B529" s="17"/>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -5290,7 +5318,7 @@
       <c r="F529" s="2"/>
       <c r="G529" s="6"/>
     </row>
-    <row r="530" spans="2:7">
+    <row r="530" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B530" s="17"/>
       <c r="C530" s="2"/>
       <c r="D530" s="2"/>
@@ -5298,7 +5326,7 @@
       <c r="F530" s="2"/>
       <c r="G530" s="6"/>
     </row>
-    <row r="531" spans="2:7">
+    <row r="531" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B531" s="17"/>
       <c r="C531" s="2"/>
       <c r="D531" s="2"/>
@@ -5306,7 +5334,7 @@
       <c r="F531" s="2"/>
       <c r="G531" s="6"/>
     </row>
-    <row r="532" spans="2:7">
+    <row r="532" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B532" s="17"/>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -5314,7 +5342,7 @@
       <c r="F532" s="2"/>
       <c r="G532" s="6"/>
     </row>
-    <row r="533" spans="2:7">
+    <row r="533" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B533" s="17"/>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -5322,7 +5350,7 @@
       <c r="F533" s="2"/>
       <c r="G533" s="6"/>
     </row>
-    <row r="534" spans="2:7">
+    <row r="534" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B534" s="17"/>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -5330,7 +5358,7 @@
       <c r="F534" s="2"/>
       <c r="G534" s="6"/>
     </row>
-    <row r="535" spans="2:7">
+    <row r="535" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B535" s="17"/>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -5338,7 +5366,7 @@
       <c r="F535" s="2"/>
       <c r="G535" s="6"/>
     </row>
-    <row r="536" spans="2:7">
+    <row r="536" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B536" s="17"/>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -5346,7 +5374,7 @@
       <c r="F536" s="2"/>
       <c r="G536" s="6"/>
     </row>
-    <row r="537" spans="2:7">
+    <row r="537" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B537" s="17"/>
       <c r="C537" s="2"/>
       <c r="D537" s="2"/>
@@ -5354,7 +5382,7 @@
       <c r="F537" s="2"/>
       <c r="G537" s="6"/>
     </row>
-    <row r="538" spans="2:7">
+    <row r="538" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B538" s="17"/>
       <c r="C538" s="2"/>
       <c r="D538" s="2"/>
@@ -5362,7 +5390,7 @@
       <c r="F538" s="2"/>
       <c r="G538" s="6"/>
     </row>
-    <row r="539" spans="2:7">
+    <row r="539" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B539" s="17"/>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -5370,7 +5398,7 @@
       <c r="F539" s="2"/>
       <c r="G539" s="6"/>
     </row>
-    <row r="540" spans="2:7">
+    <row r="540" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B540" s="17"/>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -5378,7 +5406,7 @@
       <c r="F540" s="2"/>
       <c r="G540" s="6"/>
     </row>
-    <row r="541" spans="2:7">
+    <row r="541" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B541" s="17"/>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -5386,7 +5414,7 @@
       <c r="F541" s="2"/>
       <c r="G541" s="6"/>
     </row>
-    <row r="542" spans="2:7">
+    <row r="542" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B542" s="17"/>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -5394,7 +5422,7 @@
       <c r="F542" s="2"/>
       <c r="G542" s="6"/>
     </row>
-    <row r="543" spans="2:7">
+    <row r="543" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B543" s="17"/>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -5402,7 +5430,7 @@
       <c r="F543" s="2"/>
       <c r="G543" s="6"/>
     </row>
-    <row r="544" spans="2:7">
+    <row r="544" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B544" s="17"/>
       <c r="C544" s="2"/>
       <c r="D544" s="2"/>
@@ -5410,7 +5438,7 @@
       <c r="F544" s="2"/>
       <c r="G544" s="6"/>
     </row>
-    <row r="545" spans="2:7">
+    <row r="545" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B545" s="17"/>
       <c r="C545" s="2"/>
       <c r="D545" s="2"/>
@@ -5418,7 +5446,7 @@
       <c r="F545" s="2"/>
       <c r="G545" s="6"/>
     </row>
-    <row r="546" spans="2:7">
+    <row r="546" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B546" s="17"/>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -5426,7 +5454,7 @@
       <c r="F546" s="2"/>
       <c r="G546" s="6"/>
     </row>
-    <row r="547" spans="2:7">
+    <row r="547" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B547" s="17"/>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -5434,7 +5462,7 @@
       <c r="F547" s="2"/>
       <c r="G547" s="6"/>
     </row>
-    <row r="548" spans="2:7">
+    <row r="548" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B548" s="17"/>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -5442,7 +5470,7 @@
       <c r="F548" s="2"/>
       <c r="G548" s="6"/>
     </row>
-    <row r="549" spans="2:7">
+    <row r="549" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B549" s="17"/>
       <c r="C549" s="2"/>
       <c r="D549" s="2"/>
@@ -5450,7 +5478,7 @@
       <c r="F549" s="2"/>
       <c r="G549" s="6"/>
     </row>
-    <row r="550" spans="2:7">
+    <row r="550" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B550" s="17"/>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -5458,7 +5486,7 @@
       <c r="F550" s="2"/>
       <c r="G550" s="6"/>
     </row>
-    <row r="551" spans="2:7">
+    <row r="551" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B551" s="17"/>
       <c r="C551" s="2"/>
       <c r="D551" s="2"/>
@@ -5466,7 +5494,7 @@
       <c r="F551" s="2"/>
       <c r="G551" s="6"/>
     </row>
-    <row r="552" spans="2:7">
+    <row r="552" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B552" s="17"/>
       <c r="C552" s="2"/>
       <c r="D552" s="2"/>
@@ -5474,7 +5502,7 @@
       <c r="F552" s="2"/>
       <c r="G552" s="6"/>
     </row>
-    <row r="553" spans="2:7">
+    <row r="553" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B553" s="17"/>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -5482,7 +5510,7 @@
       <c r="F553" s="2"/>
       <c r="G553" s="6"/>
     </row>
-    <row r="554" spans="2:7">
+    <row r="554" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B554" s="17"/>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -5490,7 +5518,7 @@
       <c r="F554" s="2"/>
       <c r="G554" s="6"/>
     </row>
-    <row r="555" spans="2:7">
+    <row r="555" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B555" s="17"/>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -5498,7 +5526,7 @@
       <c r="F555" s="2"/>
       <c r="G555" s="6"/>
     </row>
-    <row r="556" spans="2:7">
+    <row r="556" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B556" s="17"/>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -5506,7 +5534,7 @@
       <c r="F556" s="2"/>
       <c r="G556" s="6"/>
     </row>
-    <row r="557" spans="2:7">
+    <row r="557" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B557" s="17"/>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -5514,7 +5542,7 @@
       <c r="F557" s="2"/>
       <c r="G557" s="6"/>
     </row>
-    <row r="558" spans="2:7">
+    <row r="558" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B558" s="17"/>
       <c r="C558" s="2"/>
       <c r="D558" s="2"/>
@@ -5522,7 +5550,7 @@
       <c r="F558" s="2"/>
       <c r="G558" s="6"/>
     </row>
-    <row r="559" spans="2:7">
+    <row r="559" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B559" s="17"/>
       <c r="C559" s="2"/>
       <c r="D559" s="2"/>
@@ -5530,7 +5558,7 @@
       <c r="F559" s="2"/>
       <c r="G559" s="6"/>
     </row>
-    <row r="560" spans="2:7">
+    <row r="560" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B560" s="17"/>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -5538,7 +5566,7 @@
       <c r="F560" s="2"/>
       <c r="G560" s="6"/>
     </row>
-    <row r="561" spans="2:7">
+    <row r="561" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B561" s="17"/>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -5546,7 +5574,7 @@
       <c r="F561" s="2"/>
       <c r="G561" s="6"/>
     </row>
-    <row r="562" spans="2:7">
+    <row r="562" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B562" s="17"/>
       <c r="C562" s="2"/>
       <c r="D562" s="2"/>
@@ -5554,7 +5582,7 @@
       <c r="F562" s="2"/>
       <c r="G562" s="6"/>
     </row>
-    <row r="563" spans="2:7">
+    <row r="563" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B563" s="17"/>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -5562,7 +5590,7 @@
       <c r="F563" s="2"/>
       <c r="G563" s="6"/>
     </row>
-    <row r="564" spans="2:7">
+    <row r="564" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B564" s="17"/>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -5570,7 +5598,7 @@
       <c r="F564" s="2"/>
       <c r="G564" s="6"/>
     </row>
-    <row r="565" spans="2:7">
+    <row r="565" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B565" s="17"/>
       <c r="C565" s="2"/>
       <c r="D565" s="2"/>
@@ -5578,7 +5606,7 @@
       <c r="F565" s="2"/>
       <c r="G565" s="6"/>
     </row>
-    <row r="566" spans="2:7">
+    <row r="566" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B566" s="17"/>
       <c r="C566" s="2"/>
       <c r="D566" s="2"/>
@@ -5586,7 +5614,7 @@
       <c r="F566" s="2"/>
       <c r="G566" s="6"/>
     </row>
-    <row r="567" spans="2:7">
+    <row r="567" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B567" s="17"/>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -5594,7 +5622,7 @@
       <c r="F567" s="2"/>
       <c r="G567" s="6"/>
     </row>
-    <row r="568" spans="2:7">
+    <row r="568" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B568" s="17"/>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -5602,7 +5630,7 @@
       <c r="F568" s="2"/>
       <c r="G568" s="6"/>
     </row>
-    <row r="569" spans="2:7">
+    <row r="569" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B569" s="17"/>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -5610,7 +5638,7 @@
       <c r="F569" s="2"/>
       <c r="G569" s="6"/>
     </row>
-    <row r="570" spans="2:7">
+    <row r="570" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B570" s="17"/>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -5618,7 +5646,7 @@
       <c r="F570" s="2"/>
       <c r="G570" s="6"/>
     </row>
-    <row r="571" spans="2:7">
+    <row r="571" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B571" s="17"/>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -5626,7 +5654,7 @@
       <c r="F571" s="2"/>
       <c r="G571" s="6"/>
     </row>
-    <row r="572" spans="2:7">
+    <row r="572" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B572" s="17"/>
       <c r="C572" s="2"/>
       <c r="D572" s="2"/>
@@ -5634,7 +5662,7 @@
       <c r="F572" s="2"/>
       <c r="G572" s="6"/>
     </row>
-    <row r="573" spans="2:7">
+    <row r="573" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B573" s="17"/>
       <c r="C573" s="2"/>
       <c r="D573" s="2"/>
@@ -5642,7 +5670,7 @@
       <c r="F573" s="2"/>
       <c r="G573" s="6"/>
     </row>
-    <row r="574" spans="2:7">
+    <row r="574" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B574" s="17"/>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -5650,7 +5678,7 @@
       <c r="F574" s="2"/>
       <c r="G574" s="6"/>
     </row>
-    <row r="575" spans="2:7">
+    <row r="575" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B575" s="17"/>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -5658,7 +5686,7 @@
       <c r="F575" s="2"/>
       <c r="G575" s="6"/>
     </row>
-    <row r="576" spans="2:7">
+    <row r="576" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B576" s="17"/>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -5666,7 +5694,7 @@
       <c r="F576" s="2"/>
       <c r="G576" s="6"/>
     </row>
-    <row r="577" spans="2:7">
+    <row r="577" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B577" s="17"/>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -5674,7 +5702,7 @@
       <c r="F577" s="2"/>
       <c r="G577" s="6"/>
     </row>
-    <row r="578" spans="2:7">
+    <row r="578" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B578" s="17"/>
       <c r="C578" s="2"/>
       <c r="D578" s="2"/>
@@ -5682,7 +5710,7 @@
       <c r="F578" s="2"/>
       <c r="G578" s="6"/>
     </row>
-    <row r="579" spans="2:7">
+    <row r="579" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B579" s="17"/>
       <c r="C579" s="2"/>
       <c r="D579" s="2"/>
@@ -5690,7 +5718,7 @@
       <c r="F579" s="2"/>
       <c r="G579" s="6"/>
     </row>
-    <row r="580" spans="2:7">
+    <row r="580" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B580" s="17"/>
       <c r="C580" s="2"/>
       <c r="D580" s="2"/>
@@ -5698,7 +5726,7 @@
       <c r="F580" s="2"/>
       <c r="G580" s="6"/>
     </row>
-    <row r="581" spans="2:7">
+    <row r="581" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B581" s="17"/>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -5706,7 +5734,7 @@
       <c r="F581" s="2"/>
       <c r="G581" s="6"/>
     </row>
-    <row r="582" spans="2:7">
+    <row r="582" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B582" s="17"/>
       <c r="C582" s="2"/>
       <c r="D582" s="2"/>
@@ -5714,7 +5742,7 @@
       <c r="F582" s="2"/>
       <c r="G582" s="6"/>
     </row>
-    <row r="583" spans="2:7">
+    <row r="583" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B583" s="17"/>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -5722,7 +5750,7 @@
       <c r="F583" s="2"/>
       <c r="G583" s="6"/>
     </row>
-    <row r="584" spans="2:7">
+    <row r="584" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B584" s="17"/>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -5730,7 +5758,7 @@
       <c r="F584" s="2"/>
       <c r="G584" s="6"/>
     </row>
-    <row r="585" spans="2:7">
+    <row r="585" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B585" s="17"/>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -5738,7 +5766,7 @@
       <c r="F585" s="2"/>
       <c r="G585" s="6"/>
     </row>
-    <row r="586" spans="2:7">
+    <row r="586" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B586" s="17"/>
       <c r="C586" s="2"/>
       <c r="D586" s="2"/>
@@ -5746,7 +5774,7 @@
       <c r="F586" s="2"/>
       <c r="G586" s="6"/>
     </row>
-    <row r="587" spans="2:7">
+    <row r="587" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B587" s="17"/>
       <c r="C587" s="2"/>
       <c r="D587" s="2"/>
@@ -5754,7 +5782,7 @@
       <c r="F587" s="2"/>
       <c r="G587" s="6"/>
     </row>
-    <row r="588" spans="2:7">
+    <row r="588" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B588" s="17"/>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -5762,7 +5790,7 @@
       <c r="F588" s="2"/>
       <c r="G588" s="6"/>
     </row>
-    <row r="589" spans="2:7">
+    <row r="589" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B589" s="17"/>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -5770,7 +5798,7 @@
       <c r="F589" s="2"/>
       <c r="G589" s="6"/>
     </row>
-    <row r="590" spans="2:7">
+    <row r="590" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B590" s="17"/>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -5778,7 +5806,7 @@
       <c r="F590" s="2"/>
       <c r="G590" s="6"/>
     </row>
-    <row r="591" spans="2:7">
+    <row r="591" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B591" s="17"/>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -5786,7 +5814,7 @@
       <c r="F591" s="2"/>
       <c r="G591" s="6"/>
     </row>
-    <row r="592" spans="2:7">
+    <row r="592" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B592" s="17"/>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -5794,7 +5822,7 @@
       <c r="F592" s="2"/>
       <c r="G592" s="6"/>
     </row>
-    <row r="593" spans="2:7">
+    <row r="593" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B593" s="17"/>
       <c r="C593" s="2"/>
       <c r="D593" s="2"/>
@@ -5802,7 +5830,7 @@
       <c r="F593" s="2"/>
       <c r="G593" s="6"/>
     </row>
-    <row r="594" spans="2:7">
+    <row r="594" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B594" s="17"/>
       <c r="C594" s="2"/>
       <c r="D594" s="2"/>
@@ -5810,7 +5838,7 @@
       <c r="F594" s="2"/>
       <c r="G594" s="6"/>
     </row>
-    <row r="595" spans="2:7">
+    <row r="595" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B595" s="17"/>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -5818,7 +5846,7 @@
       <c r="F595" s="2"/>
       <c r="G595" s="6"/>
     </row>
-    <row r="596" spans="2:7">
+    <row r="596" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B596" s="17"/>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -5826,7 +5854,7 @@
       <c r="F596" s="2"/>
       <c r="G596" s="6"/>
     </row>
-    <row r="597" spans="2:7">
+    <row r="597" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B597" s="17"/>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -5834,7 +5862,7 @@
       <c r="F597" s="2"/>
       <c r="G597" s="6"/>
     </row>
-    <row r="598" spans="2:7">
+    <row r="598" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B598" s="17"/>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -5842,7 +5870,7 @@
       <c r="F598" s="2"/>
       <c r="G598" s="6"/>
     </row>
-    <row r="599" spans="2:7">
+    <row r="599" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B599" s="17"/>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -5850,7 +5878,7 @@
       <c r="F599" s="2"/>
       <c r="G599" s="6"/>
     </row>
-    <row r="600" spans="2:7">
+    <row r="600" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B600" s="17"/>
       <c r="C600" s="2"/>
       <c r="D600" s="2"/>
@@ -5858,7 +5886,7 @@
       <c r="F600" s="2"/>
       <c r="G600" s="6"/>
     </row>
-    <row r="601" spans="2:7">
+    <row r="601" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B601" s="17"/>
       <c r="C601" s="2"/>
       <c r="D601" s="2"/>
@@ -5866,7 +5894,7 @@
       <c r="F601" s="2"/>
       <c r="G601" s="6"/>
     </row>
-    <row r="602" spans="2:7">
+    <row r="602" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B602" s="17"/>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -5874,7 +5902,7 @@
       <c r="F602" s="2"/>
       <c r="G602" s="6"/>
     </row>
-    <row r="603" spans="2:7">
+    <row r="603" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B603" s="17"/>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -5882,7 +5910,7 @@
       <c r="F603" s="2"/>
       <c r="G603" s="6"/>
     </row>
-    <row r="604" spans="2:7">
+    <row r="604" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B604" s="17"/>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -5890,7 +5918,7 @@
       <c r="F604" s="2"/>
       <c r="G604" s="6"/>
     </row>
-    <row r="605" spans="2:7">
+    <row r="605" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B605" s="17"/>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -5898,7 +5926,7 @@
       <c r="F605" s="2"/>
       <c r="G605" s="6"/>
     </row>
-    <row r="606" spans="2:7">
+    <row r="606" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B606" s="17"/>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -5906,7 +5934,7 @@
       <c r="F606" s="2"/>
       <c r="G606" s="6"/>
     </row>
-    <row r="607" spans="2:7">
+    <row r="607" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B607" s="17"/>
       <c r="C607" s="2"/>
       <c r="D607" s="2"/>
@@ -5914,7 +5942,7 @@
       <c r="F607" s="2"/>
       <c r="G607" s="6"/>
     </row>
-    <row r="608" spans="2:7">
+    <row r="608" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B608" s="17"/>
       <c r="C608" s="2"/>
       <c r="D608" s="2"/>
@@ -5922,7 +5950,7 @@
       <c r="F608" s="2"/>
       <c r="G608" s="6"/>
     </row>
-    <row r="609" spans="2:7">
+    <row r="609" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B609" s="17"/>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -5930,7 +5958,7 @@
       <c r="F609" s="2"/>
       <c r="G609" s="6"/>
     </row>
-    <row r="610" spans="2:7">
+    <row r="610" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B610" s="17"/>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -5938,7 +5966,7 @@
       <c r="F610" s="2"/>
       <c r="G610" s="6"/>
     </row>
-    <row r="611" spans="2:7">
+    <row r="611" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B611" s="17"/>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -5946,7 +5974,7 @@
       <c r="F611" s="2"/>
       <c r="G611" s="6"/>
     </row>
-    <row r="612" spans="2:7">
+    <row r="612" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B612" s="17"/>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -5954,7 +5982,7 @@
       <c r="F612" s="2"/>
       <c r="G612" s="6"/>
     </row>
-    <row r="613" spans="2:7">
+    <row r="613" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B613" s="17"/>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -5962,7 +5990,7 @@
       <c r="F613" s="2"/>
       <c r="G613" s="6"/>
     </row>
-    <row r="614" spans="2:7">
+    <row r="614" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B614" s="17"/>
       <c r="C614" s="2"/>
       <c r="D614" s="2"/>
@@ -5970,7 +5998,7 @@
       <c r="F614" s="2"/>
       <c r="G614" s="6"/>
     </row>
-    <row r="615" spans="2:7">
+    <row r="615" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B615" s="17"/>
       <c r="C615" s="2"/>
       <c r="D615" s="2"/>
@@ -5978,7 +6006,7 @@
       <c r="F615" s="2"/>
       <c r="G615" s="6"/>
     </row>
-    <row r="616" spans="2:7">
+    <row r="616" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B616" s="17"/>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -5986,7 +6014,7 @@
       <c r="F616" s="2"/>
       <c r="G616" s="6"/>
     </row>
-    <row r="617" spans="2:7">
+    <row r="617" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B617" s="17"/>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -5994,7 +6022,7 @@
       <c r="F617" s="2"/>
       <c r="G617" s="6"/>
     </row>
-    <row r="618" spans="2:7">
+    <row r="618" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B618" s="17"/>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -6002,7 +6030,7 @@
       <c r="F618" s="2"/>
       <c r="G618" s="6"/>
     </row>
-    <row r="619" spans="2:7">
+    <row r="619" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B619" s="17"/>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -6010,7 +6038,7 @@
       <c r="F619" s="2"/>
       <c r="G619" s="6"/>
     </row>
-    <row r="620" spans="2:7">
+    <row r="620" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B620" s="17"/>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -6018,7 +6046,7 @@
       <c r="F620" s="2"/>
       <c r="G620" s="6"/>
     </row>
-    <row r="621" spans="2:7">
+    <row r="621" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B621" s="17"/>
       <c r="C621" s="2"/>
       <c r="D621" s="2"/>
@@ -6026,7 +6054,7 @@
       <c r="F621" s="2"/>
       <c r="G621" s="6"/>
     </row>
-    <row r="622" spans="2:7">
+    <row r="622" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B622" s="17"/>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -6034,7 +6062,7 @@
       <c r="F622" s="2"/>
       <c r="G622" s="6"/>
     </row>
-    <row r="623" spans="2:7">
+    <row r="623" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B623" s="17"/>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -6042,7 +6070,7 @@
       <c r="F623" s="2"/>
       <c r="G623" s="6"/>
     </row>
-    <row r="624" spans="2:7">
+    <row r="624" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B624" s="17"/>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -6050,7 +6078,7 @@
       <c r="F624" s="2"/>
       <c r="G624" s="6"/>
     </row>
-    <row r="625" spans="2:7">
+    <row r="625" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B625" s="17"/>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -6058,7 +6086,7 @@
       <c r="F625" s="2"/>
       <c r="G625" s="6"/>
     </row>
-    <row r="626" spans="2:7">
+    <row r="626" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B626" s="17"/>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -6066,7 +6094,7 @@
       <c r="F626" s="2"/>
       <c r="G626" s="6"/>
     </row>
-    <row r="627" spans="2:7">
+    <row r="627" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B627" s="17"/>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -6074,7 +6102,7 @@
       <c r="F627" s="2"/>
       <c r="G627" s="6"/>
     </row>
-    <row r="628" spans="2:7">
+    <row r="628" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B628" s="17"/>
       <c r="C628" s="2"/>
       <c r="D628" s="2"/>
@@ -6082,7 +6110,7 @@
       <c r="F628" s="2"/>
       <c r="G628" s="6"/>
     </row>
-    <row r="629" spans="2:7">
+    <row r="629" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B629" s="17"/>
       <c r="C629" s="2"/>
       <c r="D629" s="2"/>
@@ -6090,7 +6118,7 @@
       <c r="F629" s="2"/>
       <c r="G629" s="6"/>
     </row>
-    <row r="630" spans="2:7">
+    <row r="630" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B630" s="17"/>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -6098,7 +6126,7 @@
       <c r="F630" s="2"/>
       <c r="G630" s="6"/>
     </row>
-    <row r="631" spans="2:7">
+    <row r="631" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B631" s="17"/>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -6106,7 +6134,7 @@
       <c r="F631" s="2"/>
       <c r="G631" s="6"/>
     </row>
-    <row r="632" spans="2:7">
+    <row r="632" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B632" s="17"/>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -6114,7 +6142,7 @@
       <c r="F632" s="2"/>
       <c r="G632" s="6"/>
     </row>
-    <row r="633" spans="2:7">
+    <row r="633" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B633" s="17"/>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -6122,7 +6150,7 @@
       <c r="F633" s="2"/>
       <c r="G633" s="6"/>
     </row>
-    <row r="634" spans="2:7">
+    <row r="634" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B634" s="17"/>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -6130,7 +6158,7 @@
       <c r="F634" s="2"/>
       <c r="G634" s="6"/>
     </row>
-    <row r="635" spans="2:7">
+    <row r="635" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B635" s="17"/>
       <c r="C635" s="2"/>
       <c r="D635" s="2"/>
@@ -6138,7 +6166,7 @@
       <c r="F635" s="2"/>
       <c r="G635" s="6"/>
     </row>
-    <row r="636" spans="2:7">
+    <row r="636" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B636" s="17"/>
       <c r="C636" s="2"/>
       <c r="D636" s="2"/>
@@ -6146,7 +6174,7 @@
       <c r="F636" s="2"/>
       <c r="G636" s="6"/>
     </row>
-    <row r="637" spans="2:7">
+    <row r="637" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B637" s="17"/>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -6154,7 +6182,7 @@
       <c r="F637" s="2"/>
       <c r="G637" s="6"/>
     </row>
-    <row r="638" spans="2:7">
+    <row r="638" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B638" s="17"/>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -6162,7 +6190,7 @@
       <c r="F638" s="2"/>
       <c r="G638" s="6"/>
     </row>
-    <row r="639" spans="2:7">
+    <row r="639" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B639" s="17"/>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -6170,7 +6198,7 @@
       <c r="F639" s="2"/>
       <c r="G639" s="6"/>
     </row>
-    <row r="640" spans="2:7">
+    <row r="640" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B640" s="17"/>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -6178,7 +6206,7 @@
       <c r="F640" s="2"/>
       <c r="G640" s="6"/>
     </row>
-    <row r="641" spans="2:7">
+    <row r="641" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B641" s="17"/>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -6186,7 +6214,7 @@
       <c r="F641" s="2"/>
       <c r="G641" s="6"/>
     </row>
-    <row r="642" spans="2:7">
+    <row r="642" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B642" s="17"/>
       <c r="C642" s="2"/>
       <c r="D642" s="2"/>
@@ -6194,7 +6222,7 @@
       <c r="F642" s="2"/>
       <c r="G642" s="6"/>
     </row>
-    <row r="643" spans="2:7">
+    <row r="643" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B643" s="17"/>
       <c r="C643" s="2"/>
       <c r="D643" s="2"/>
@@ -6202,7 +6230,7 @@
       <c r="F643" s="2"/>
       <c r="G643" s="6"/>
     </row>
-    <row r="644" spans="2:7">
+    <row r="644" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B644" s="17"/>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -6210,7 +6238,7 @@
       <c r="F644" s="2"/>
       <c r="G644" s="6"/>
     </row>
-    <row r="645" spans="2:7">
+    <row r="645" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B645" s="17"/>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -6218,7 +6246,7 @@
       <c r="F645" s="2"/>
       <c r="G645" s="6"/>
     </row>
-    <row r="646" spans="2:7">
+    <row r="646" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B646" s="17"/>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -6226,7 +6254,7 @@
       <c r="F646" s="2"/>
       <c r="G646" s="6"/>
     </row>
-    <row r="647" spans="2:7">
+    <row r="647" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B647" s="17"/>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -6234,7 +6262,7 @@
       <c r="F647" s="2"/>
       <c r="G647" s="6"/>
     </row>
-    <row r="648" spans="2:7">
+    <row r="648" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B648" s="17"/>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -6242,7 +6270,7 @@
       <c r="F648" s="2"/>
       <c r="G648" s="6"/>
     </row>
-    <row r="649" spans="2:7">
+    <row r="649" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B649" s="17"/>
       <c r="C649" s="2"/>
       <c r="D649" s="2"/>
@@ -6250,7 +6278,7 @@
       <c r="F649" s="2"/>
       <c r="G649" s="6"/>
     </row>
-    <row r="650" spans="2:7">
+    <row r="650" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B650" s="17"/>
       <c r="C650" s="2"/>
       <c r="D650" s="2"/>
@@ -6258,7 +6286,7 @@
       <c r="F650" s="2"/>
       <c r="G650" s="6"/>
     </row>
-    <row r="651" spans="2:7">
+    <row r="651" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B651" s="17"/>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -6266,7 +6294,7 @@
       <c r="F651" s="2"/>
       <c r="G651" s="6"/>
     </row>
-    <row r="652" spans="2:7">
+    <row r="652" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B652" s="17"/>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -6274,7 +6302,7 @@
       <c r="F652" s="2"/>
       <c r="G652" s="6"/>
     </row>
-    <row r="653" spans="2:7">
+    <row r="653" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B653" s="17"/>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -6282,7 +6310,7 @@
       <c r="F653" s="2"/>
       <c r="G653" s="6"/>
     </row>
-    <row r="654" spans="2:7">
+    <row r="654" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B654" s="17"/>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -6290,7 +6318,7 @@
       <c r="F654" s="2"/>
       <c r="G654" s="6"/>
     </row>
-    <row r="655" spans="2:7">
+    <row r="655" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B655" s="17"/>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -6298,7 +6326,7 @@
       <c r="F655" s="2"/>
       <c r="G655" s="6"/>
     </row>
-    <row r="656" spans="2:7">
+    <row r="656" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B656" s="17"/>
       <c r="C656" s="2"/>
       <c r="D656" s="2"/>
@@ -6306,7 +6334,7 @@
       <c r="F656" s="2"/>
       <c r="G656" s="6"/>
     </row>
-    <row r="657" spans="2:7">
+    <row r="657" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B657" s="17"/>
       <c r="C657" s="2"/>
       <c r="D657" s="2"/>
@@ -6314,7 +6342,7 @@
       <c r="F657" s="2"/>
       <c r="G657" s="6"/>
     </row>
-    <row r="658" spans="2:7">
+    <row r="658" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B658" s="17"/>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -6322,7 +6350,7 @@
       <c r="F658" s="2"/>
       <c r="G658" s="6"/>
     </row>
-    <row r="659" spans="2:7">
+    <row r="659" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B659" s="17"/>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -6330,7 +6358,7 @@
       <c r="F659" s="2"/>
       <c r="G659" s="6"/>
     </row>
-    <row r="660" spans="2:7">
+    <row r="660" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B660" s="17"/>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -6338,7 +6366,7 @@
       <c r="F660" s="2"/>
       <c r="G660" s="6"/>
     </row>
-    <row r="661" spans="2:7">
+    <row r="661" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B661" s="17"/>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -6346,7 +6374,7 @@
       <c r="F661" s="2"/>
       <c r="G661" s="6"/>
     </row>
-    <row r="662" spans="2:7">
+    <row r="662" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B662" s="17"/>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -6354,7 +6382,7 @@
       <c r="F662" s="2"/>
       <c r="G662" s="6"/>
     </row>
-    <row r="663" spans="2:7">
+    <row r="663" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B663" s="17"/>
       <c r="C663" s="2"/>
       <c r="D663" s="2"/>
@@ -6362,7 +6390,7 @@
       <c r="F663" s="2"/>
       <c r="G663" s="6"/>
     </row>
-    <row r="664" spans="2:7">
+    <row r="664" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B664" s="17"/>
       <c r="C664" s="2"/>
       <c r="D664" s="2"/>
@@ -6370,7 +6398,7 @@
       <c r="F664" s="2"/>
       <c r="G664" s="6"/>
     </row>
-    <row r="665" spans="2:7">
+    <row r="665" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B665" s="17"/>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -6378,7 +6406,7 @@
       <c r="F665" s="2"/>
       <c r="G665" s="6"/>
     </row>
-    <row r="666" spans="2:7">
+    <row r="666" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B666" s="17"/>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -6386,7 +6414,7 @@
       <c r="F666" s="2"/>
       <c r="G666" s="6"/>
     </row>
-    <row r="667" spans="2:7">
+    <row r="667" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B667" s="17"/>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -6394,7 +6422,7 @@
       <c r="F667" s="2"/>
       <c r="G667" s="6"/>
     </row>
-    <row r="668" spans="2:7">
+    <row r="668" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B668" s="17"/>
       <c r="C668" s="2"/>
       <c r="D668" s="2"/>
@@ -6402,7 +6430,7 @@
       <c r="F668" s="2"/>
       <c r="G668" s="6"/>
     </row>
-    <row r="669" spans="2:7">
+    <row r="669" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B669" s="17"/>
       <c r="C669" s="2"/>
       <c r="D669" s="2"/>
@@ -6410,7 +6438,7 @@
       <c r="F669" s="2"/>
       <c r="G669" s="6"/>
     </row>
-    <row r="670" spans="2:7">
+    <row r="670" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B670" s="17"/>
       <c r="C670" s="2"/>
       <c r="D670" s="2"/>
@@ -6418,7 +6446,7 @@
       <c r="F670" s="2"/>
       <c r="G670" s="6"/>
     </row>
-    <row r="671" spans="2:7">
+    <row r="671" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B671" s="17"/>
       <c r="C671" s="2"/>
       <c r="D671" s="2"/>
@@ -6426,7 +6454,7 @@
       <c r="F671" s="2"/>
       <c r="G671" s="6"/>
     </row>
-    <row r="672" spans="2:7">
+    <row r="672" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B672" s="17"/>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -6434,7 +6462,7 @@
       <c r="F672" s="2"/>
       <c r="G672" s="6"/>
     </row>
-    <row r="673" spans="2:7">
+    <row r="673" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B673" s="17"/>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -6442,7 +6470,7 @@
       <c r="F673" s="2"/>
       <c r="G673" s="6"/>
     </row>
-    <row r="674" spans="2:7">
+    <row r="674" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B674" s="17"/>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -6450,7 +6478,7 @@
       <c r="F674" s="2"/>
       <c r="G674" s="6"/>
     </row>
-    <row r="675" spans="2:7">
+    <row r="675" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B675" s="17"/>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -6458,7 +6486,7 @@
       <c r="F675" s="2"/>
       <c r="G675" s="6"/>
     </row>
-    <row r="676" spans="2:7">
+    <row r="676" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B676" s="17"/>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -6466,7 +6494,7 @@
       <c r="F676" s="2"/>
       <c r="G676" s="6"/>
     </row>
-    <row r="677" spans="2:7">
+    <row r="677" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B677" s="17"/>
       <c r="C677" s="2"/>
       <c r="D677" s="2"/>
@@ -6474,7 +6502,7 @@
       <c r="F677" s="2"/>
       <c r="G677" s="6"/>
     </row>
-    <row r="678" spans="2:7">
+    <row r="678" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B678" s="17"/>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -6482,7 +6510,7 @@
       <c r="F678" s="2"/>
       <c r="G678" s="6"/>
     </row>
-    <row r="679" spans="2:7">
+    <row r="679" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B679" s="17"/>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -6490,7 +6518,7 @@
       <c r="F679" s="2"/>
       <c r="G679" s="6"/>
     </row>
-    <row r="680" spans="2:7">
+    <row r="680" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B680" s="17"/>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -6498,7 +6526,7 @@
       <c r="F680" s="2"/>
       <c r="G680" s="6"/>
     </row>
-    <row r="681" spans="2:7">
+    <row r="681" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B681" s="17"/>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -6506,7 +6534,7 @@
       <c r="F681" s="2"/>
       <c r="G681" s="6"/>
     </row>
-    <row r="682" spans="2:7">
+    <row r="682" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B682" s="17"/>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -6514,7 +6542,7 @@
       <c r="F682" s="2"/>
       <c r="G682" s="6"/>
     </row>
-    <row r="683" spans="2:7">
+    <row r="683" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B683" s="17"/>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -6522,7 +6550,7 @@
       <c r="F683" s="2"/>
       <c r="G683" s="6"/>
     </row>
-    <row r="684" spans="2:7">
+    <row r="684" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B684" s="17"/>
       <c r="C684" s="2"/>
       <c r="D684" s="2"/>
@@ -6530,7 +6558,7 @@
       <c r="F684" s="2"/>
       <c r="G684" s="6"/>
     </row>
-    <row r="685" spans="2:7">
+    <row r="685" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B685" s="17"/>
       <c r="C685" s="2"/>
       <c r="D685" s="2"/>
@@ -6538,7 +6566,7 @@
       <c r="F685" s="2"/>
       <c r="G685" s="6"/>
     </row>
-    <row r="686" spans="2:7">
+    <row r="686" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B686" s="17"/>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -6546,7 +6574,7 @@
       <c r="F686" s="2"/>
       <c r="G686" s="6"/>
     </row>
-    <row r="687" spans="2:7">
+    <row r="687" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B687" s="17"/>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -6554,7 +6582,7 @@
       <c r="F687" s="2"/>
       <c r="G687" s="6"/>
     </row>
-    <row r="688" spans="2:7">
+    <row r="688" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B688" s="17"/>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -6562,7 +6590,7 @@
       <c r="F688" s="2"/>
       <c r="G688" s="6"/>
     </row>
-    <row r="689" spans="2:7">
+    <row r="689" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B689" s="17"/>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -6570,7 +6598,7 @@
       <c r="F689" s="2"/>
       <c r="G689" s="6"/>
     </row>
-    <row r="690" spans="2:7">
+    <row r="690" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B690" s="17"/>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -6578,7 +6606,7 @@
       <c r="F690" s="2"/>
       <c r="G690" s="6"/>
     </row>
-    <row r="691" spans="2:7">
+    <row r="691" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B691" s="17"/>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -6586,7 +6614,7 @@
       <c r="F691" s="2"/>
       <c r="G691" s="6"/>
     </row>
-    <row r="692" spans="2:7">
+    <row r="692" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B692" s="17"/>
       <c r="C692" s="2"/>
       <c r="D692" s="2"/>
@@ -6594,7 +6622,7 @@
       <c r="F692" s="2"/>
       <c r="G692" s="6"/>
     </row>
-    <row r="693" spans="2:7">
+    <row r="693" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B693" s="17"/>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -6602,7 +6630,7 @@
       <c r="F693" s="2"/>
       <c r="G693" s="6"/>
     </row>
-    <row r="694" spans="2:7">
+    <row r="694" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B694" s="17"/>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -6610,7 +6638,7 @@
       <c r="F694" s="2"/>
       <c r="G694" s="6"/>
     </row>
-    <row r="695" spans="2:7">
+    <row r="695" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B695" s="17"/>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -6618,7 +6646,7 @@
       <c r="F695" s="2"/>
       <c r="G695" s="6"/>
     </row>
-    <row r="696" spans="2:7">
+    <row r="696" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B696" s="17"/>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -6626,7 +6654,7 @@
       <c r="F696" s="2"/>
       <c r="G696" s="6"/>
     </row>
-    <row r="697" spans="2:7">
+    <row r="697" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B697" s="17"/>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -6634,7 +6662,7 @@
       <c r="F697" s="2"/>
       <c r="G697" s="6"/>
     </row>
-    <row r="698" spans="2:7">
+    <row r="698" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B698" s="17"/>
       <c r="C698" s="2"/>
       <c r="D698" s="2"/>
@@ -6642,7 +6670,7 @@
       <c r="F698" s="2"/>
       <c r="G698" s="6"/>
     </row>
-    <row r="699" spans="2:7">
+    <row r="699" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B699" s="17"/>
       <c r="C699" s="2"/>
       <c r="D699" s="2"/>
@@ -6650,7 +6678,7 @@
       <c r="F699" s="2"/>
       <c r="G699" s="6"/>
     </row>
-    <row r="700" spans="2:7">
+    <row r="700" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B700" s="17"/>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -6658,7 +6686,7 @@
       <c r="F700" s="2"/>
       <c r="G700" s="6"/>
     </row>
-    <row r="701" spans="2:7">
+    <row r="701" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B701" s="17"/>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -6666,7 +6694,7 @@
       <c r="F701" s="2"/>
       <c r="G701" s="6"/>
     </row>
-    <row r="702" spans="2:7">
+    <row r="702" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B702" s="17"/>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -6674,7 +6702,7 @@
       <c r="F702" s="2"/>
       <c r="G702" s="6"/>
     </row>
-    <row r="703" spans="2:7">
+    <row r="703" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B703" s="17"/>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -6682,7 +6710,7 @@
       <c r="F703" s="2"/>
       <c r="G703" s="6"/>
     </row>
-    <row r="704" spans="2:7">
+    <row r="704" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B704" s="17"/>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -6690,7 +6718,7 @@
       <c r="F704" s="2"/>
       <c r="G704" s="6"/>
     </row>
-    <row r="705" spans="2:7">
+    <row r="705" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B705" s="17"/>
       <c r="C705" s="2"/>
       <c r="D705" s="2"/>
@@ -6698,7 +6726,7 @@
       <c r="F705" s="2"/>
       <c r="G705" s="6"/>
     </row>
-    <row r="706" spans="2:7">
+    <row r="706" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B706" s="17"/>
       <c r="C706" s="2"/>
       <c r="D706" s="2"/>
@@ -6706,7 +6734,7 @@
       <c r="F706" s="2"/>
       <c r="G706" s="6"/>
     </row>
-    <row r="707" spans="2:7">
+    <row r="707" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B707" s="17"/>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -6714,7 +6742,7 @@
       <c r="F707" s="2"/>
       <c r="G707" s="6"/>
     </row>
-    <row r="708" spans="2:7">
+    <row r="708" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B708" s="17"/>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -6722,7 +6750,7 @@
       <c r="F708" s="2"/>
       <c r="G708" s="6"/>
     </row>
-    <row r="709" spans="2:7">
+    <row r="709" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B709" s="17"/>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -6730,7 +6758,7 @@
       <c r="F709" s="2"/>
       <c r="G709" s="6"/>
     </row>
-    <row r="710" spans="2:7">
+    <row r="710" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B710" s="17"/>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -6738,7 +6766,7 @@
       <c r="F710" s="2"/>
       <c r="G710" s="6"/>
     </row>
-    <row r="711" spans="2:7">
+    <row r="711" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B711" s="17"/>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -6746,7 +6774,7 @@
       <c r="F711" s="2"/>
       <c r="G711" s="6"/>
     </row>
-    <row r="712" spans="2:7">
+    <row r="712" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B712" s="17"/>
       <c r="C712" s="2"/>
       <c r="D712" s="2"/>
@@ -6754,7 +6782,7 @@
       <c r="F712" s="2"/>
       <c r="G712" s="6"/>
     </row>
-    <row r="713" spans="2:7">
+    <row r="713" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B713" s="17"/>
       <c r="C713" s="2"/>
       <c r="D713" s="2"/>
@@ -6762,7 +6790,7 @@
       <c r="F713" s="2"/>
       <c r="G713" s="6"/>
     </row>
-    <row r="714" spans="2:7">
+    <row r="714" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B714" s="17"/>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -6770,7 +6798,7 @@
       <c r="F714" s="2"/>
       <c r="G714" s="6"/>
     </row>
-    <row r="715" spans="2:7">
+    <row r="715" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B715" s="17"/>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -6778,7 +6806,7 @@
       <c r="F715" s="2"/>
       <c r="G715" s="6"/>
     </row>
-    <row r="716" spans="2:7">
+    <row r="716" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B716" s="17"/>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -6786,7 +6814,7 @@
       <c r="F716" s="2"/>
       <c r="G716" s="6"/>
     </row>
-    <row r="717" spans="2:7">
+    <row r="717" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B717" s="17"/>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -6794,7 +6822,7 @@
       <c r="F717" s="2"/>
       <c r="G717" s="6"/>
     </row>
-    <row r="718" spans="2:7">
+    <row r="718" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B718" s="17"/>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -6802,7 +6830,7 @@
       <c r="F718" s="2"/>
       <c r="G718" s="6"/>
     </row>
-    <row r="719" spans="2:7">
+    <row r="719" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B719" s="17"/>
       <c r="C719" s="2"/>
       <c r="D719" s="2"/>
@@ -6810,7 +6838,7 @@
       <c r="F719" s="2"/>
       <c r="G719" s="6"/>
     </row>
-    <row r="720" spans="2:7">
+    <row r="720" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B720" s="17"/>
       <c r="C720" s="2"/>
       <c r="D720" s="2"/>
@@ -6818,7 +6846,7 @@
       <c r="F720" s="2"/>
       <c r="G720" s="6"/>
     </row>
-    <row r="721" spans="2:7">
+    <row r="721" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B721" s="17"/>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -6826,7 +6854,7 @@
       <c r="F721" s="2"/>
       <c r="G721" s="6"/>
     </row>
-    <row r="722" spans="2:7">
+    <row r="722" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B722" s="17"/>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -6834,7 +6862,7 @@
       <c r="F722" s="2"/>
       <c r="G722" s="6"/>
     </row>
-    <row r="723" spans="2:7">
+    <row r="723" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B723" s="17"/>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -6842,7 +6870,7 @@
       <c r="F723" s="2"/>
       <c r="G723" s="6"/>
     </row>
-    <row r="724" spans="2:7">
+    <row r="724" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B724" s="17"/>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -6850,7 +6878,7 @@
       <c r="F724" s="2"/>
       <c r="G724" s="6"/>
     </row>
-    <row r="725" spans="2:7">
+    <row r="725" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B725" s="17"/>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -6858,7 +6886,7 @@
       <c r="F725" s="2"/>
       <c r="G725" s="6"/>
     </row>
-    <row r="726" spans="2:7">
+    <row r="726" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B726" s="17"/>
       <c r="C726" s="2"/>
       <c r="D726" s="2"/>
@@ -6866,7 +6894,7 @@
       <c r="F726" s="2"/>
       <c r="G726" s="6"/>
     </row>
-    <row r="727" spans="2:7">
+    <row r="727" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B727" s="17"/>
       <c r="C727" s="2"/>
       <c r="D727" s="2"/>
@@ -6874,7 +6902,7 @@
       <c r="F727" s="2"/>
       <c r="G727" s="6"/>
     </row>
-    <row r="728" spans="2:7">
+    <row r="728" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B728" s="17"/>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -6882,7 +6910,7 @@
       <c r="F728" s="2"/>
       <c r="G728" s="6"/>
     </row>
-    <row r="729" spans="2:7">
+    <row r="729" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B729" s="17"/>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -6890,7 +6918,7 @@
       <c r="F729" s="2"/>
       <c r="G729" s="6"/>
     </row>
-    <row r="730" spans="2:7">
+    <row r="730" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B730" s="17"/>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -6898,7 +6926,7 @@
       <c r="F730" s="2"/>
       <c r="G730" s="6"/>
     </row>
-    <row r="731" spans="2:7">
+    <row r="731" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B731" s="17"/>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -6906,7 +6934,7 @@
       <c r="F731" s="2"/>
       <c r="G731" s="6"/>
     </row>
-    <row r="732" spans="2:7">
+    <row r="732" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B732" s="17"/>
       <c r="C732" s="2"/>
       <c r="D732" s="2"/>
@@ -6914,7 +6942,7 @@
       <c r="F732" s="2"/>
       <c r="G732" s="6"/>
     </row>
-    <row r="733" spans="2:7">
+    <row r="733" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B733" s="17"/>
       <c r="C733" s="2"/>
       <c r="D733" s="2"/>
@@ -6922,7 +6950,7 @@
       <c r="F733" s="2"/>
       <c r="G733" s="6"/>
     </row>
-    <row r="734" spans="2:7">
+    <row r="734" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B734" s="17"/>
       <c r="C734" s="2"/>
       <c r="D734" s="2"/>
@@ -6930,7 +6958,7 @@
       <c r="F734" s="2"/>
       <c r="G734" s="6"/>
     </row>
-    <row r="735" spans="2:7">
+    <row r="735" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B735" s="17"/>
       <c r="C735" s="2"/>
       <c r="D735" s="2"/>
@@ -6938,7 +6966,7 @@
       <c r="F735" s="2"/>
       <c r="G735" s="6"/>
     </row>
-    <row r="736" spans="2:7">
+    <row r="736" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B736" s="17"/>
       <c r="C736" s="2"/>
       <c r="D736" s="2"/>
@@ -6946,7 +6974,7 @@
       <c r="F736" s="2"/>
       <c r="G736" s="6"/>
     </row>
-    <row r="737" spans="2:7">
+    <row r="737" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B737" s="17"/>
       <c r="C737" s="2"/>
       <c r="D737" s="2"/>
@@ -6954,7 +6982,7 @@
       <c r="F737" s="2"/>
       <c r="G737" s="6"/>
     </row>
-    <row r="738" spans="2:7">
+    <row r="738" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B738" s="17"/>
       <c r="C738" s="2"/>
       <c r="D738" s="2"/>
@@ -6962,7 +6990,7 @@
       <c r="F738" s="2"/>
       <c r="G738" s="6"/>
     </row>
-    <row r="739" spans="2:7">
+    <row r="739" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B739" s="17"/>
       <c r="C739" s="2"/>
       <c r="D739" s="2"/>
@@ -6970,7 +6998,7 @@
       <c r="F739" s="2"/>
       <c r="G739" s="6"/>
     </row>
-    <row r="740" spans="2:7">
+    <row r="740" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B740" s="17"/>
       <c r="C740" s="2"/>
       <c r="D740" s="2"/>
@@ -6978,7 +7006,7 @@
       <c r="F740" s="2"/>
       <c r="G740" s="6"/>
     </row>
-    <row r="741" spans="2:7">
+    <row r="741" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B741" s="17"/>
       <c r="C741" s="2"/>
       <c r="D741" s="2"/>
@@ -6986,7 +7014,7 @@
       <c r="F741" s="2"/>
       <c r="G741" s="6"/>
     </row>
-    <row r="742" spans="2:7">
+    <row r="742" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B742" s="17"/>
       <c r="C742" s="2"/>
       <c r="D742" s="2"/>
@@ -6994,7 +7022,7 @@
       <c r="F742" s="2"/>
       <c r="G742" s="6"/>
     </row>
-    <row r="743" spans="2:7">
+    <row r="743" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B743" s="17"/>
       <c r="C743" s="2"/>
       <c r="D743" s="2"/>
@@ -7002,7 +7030,7 @@
       <c r="F743" s="2"/>
       <c r="G743" s="6"/>
     </row>
-    <row r="744" spans="2:7">
+    <row r="744" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B744" s="17"/>
       <c r="C744" s="2"/>
       <c r="D744" s="2"/>
@@ -7010,7 +7038,7 @@
       <c r="F744" s="2"/>
       <c r="G744" s="6"/>
     </row>
-    <row r="745" spans="2:7">
+    <row r="745" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B745" s="17"/>
       <c r="C745" s="2"/>
       <c r="D745" s="2"/>
@@ -7018,7 +7046,7 @@
       <c r="F745" s="2"/>
       <c r="G745" s="6"/>
     </row>
-    <row r="746" spans="2:7">
+    <row r="746" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B746" s="17"/>
       <c r="C746" s="2"/>
       <c r="D746" s="2"/>
@@ -7026,7 +7054,7 @@
       <c r="F746" s="2"/>
       <c r="G746" s="6"/>
     </row>
-    <row r="747" spans="2:7">
+    <row r="747" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B747" s="17"/>
       <c r="C747" s="2"/>
       <c r="D747" s="2"/>
@@ -7034,7 +7062,7 @@
       <c r="F747" s="2"/>
       <c r="G747" s="6"/>
     </row>
-    <row r="748" spans="2:7">
+    <row r="748" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B748" s="17"/>
       <c r="C748" s="2"/>
       <c r="D748" s="2"/>
@@ -7042,7 +7070,7 @@
       <c r="F748" s="2"/>
       <c r="G748" s="6"/>
     </row>
-    <row r="749" spans="2:7">
+    <row r="749" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B749" s="17"/>
       <c r="C749" s="2"/>
       <c r="D749" s="2"/>
@@ -7050,7 +7078,7 @@
       <c r="F749" s="2"/>
       <c r="G749" s="6"/>
     </row>
-    <row r="750" spans="2:7">
+    <row r="750" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B750" s="17"/>
       <c r="C750" s="2"/>
       <c r="D750" s="2"/>
@@ -7058,7 +7086,7 @@
       <c r="F750" s="2"/>
       <c r="G750" s="6"/>
     </row>
-    <row r="751" spans="2:7">
+    <row r="751" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B751" s="17"/>
       <c r="C751" s="2"/>
       <c r="D751" s="2"/>
@@ -7066,7 +7094,7 @@
       <c r="F751" s="2"/>
       <c r="G751" s="6"/>
     </row>
-    <row r="752" spans="2:7">
+    <row r="752" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B752" s="17"/>
       <c r="C752" s="2"/>
       <c r="D752" s="2"/>
@@ -7074,7 +7102,7 @@
       <c r="F752" s="2"/>
       <c r="G752" s="6"/>
     </row>
-    <row r="753" spans="2:7">
+    <row r="753" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B753" s="17"/>
       <c r="C753" s="2"/>
       <c r="D753" s="2"/>
@@ -7082,7 +7110,7 @@
       <c r="F753" s="2"/>
       <c r="G753" s="6"/>
     </row>
-    <row r="754" spans="2:7">
+    <row r="754" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B754" s="17"/>
       <c r="C754" s="2"/>
       <c r="D754" s="2"/>
@@ -7090,7 +7118,7 @@
       <c r="F754" s="2"/>
       <c r="G754" s="6"/>
     </row>
-    <row r="755" spans="2:7">
+    <row r="755" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B755" s="17"/>
       <c r="C755" s="2"/>
       <c r="D755" s="2"/>
@@ -7098,7 +7126,7 @@
       <c r="F755" s="2"/>
       <c r="G755" s="6"/>
     </row>
-    <row r="756" spans="2:7">
+    <row r="756" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B756" s="17"/>
       <c r="C756" s="2"/>
       <c r="D756" s="2"/>
@@ -7106,7 +7134,7 @@
       <c r="F756" s="2"/>
       <c r="G756" s="6"/>
     </row>
-    <row r="757" spans="2:7">
+    <row r="757" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B757" s="17"/>
       <c r="C757" s="2"/>
       <c r="D757" s="2"/>
@@ -7114,7 +7142,7 @@
       <c r="F757" s="2"/>
       <c r="G757" s="6"/>
     </row>
-    <row r="758" spans="2:7">
+    <row r="758" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B758" s="17"/>
       <c r="C758" s="2"/>
       <c r="D758" s="2"/>
@@ -7122,7 +7150,7 @@
       <c r="F758" s="2"/>
       <c r="G758" s="6"/>
     </row>
-    <row r="759" spans="2:7">
+    <row r="759" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B759" s="17"/>
       <c r="C759" s="2"/>
       <c r="D759" s="2"/>
@@ -7130,7 +7158,7 @@
       <c r="F759" s="2"/>
       <c r="G759" s="6"/>
     </row>
-    <row r="760" spans="2:7">
+    <row r="760" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B760" s="17"/>
       <c r="C760" s="2"/>
       <c r="D760" s="2"/>
@@ -7138,7 +7166,7 @@
       <c r="F760" s="2"/>
       <c r="G760" s="6"/>
     </row>
-    <row r="761" spans="2:7">
+    <row r="761" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B761" s="17"/>
       <c r="C761" s="2"/>
       <c r="D761" s="2"/>
@@ -7146,7 +7174,7 @@
       <c r="F761" s="2"/>
       <c r="G761" s="6"/>
     </row>
-    <row r="762" spans="2:7">
+    <row r="762" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B762" s="17"/>
       <c r="C762" s="2"/>
       <c r="D762" s="2"/>
@@ -7154,7 +7182,7 @@
       <c r="F762" s="2"/>
       <c r="G762" s="6"/>
     </row>
-    <row r="763" spans="2:7">
+    <row r="763" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B763" s="17"/>
       <c r="C763" s="2"/>
       <c r="D763" s="2"/>
@@ -7162,7 +7190,7 @@
       <c r="F763" s="2"/>
       <c r="G763" s="6"/>
     </row>
-    <row r="764" spans="2:7">
+    <row r="764" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B764" s="17"/>
       <c r="C764" s="2"/>
       <c r="D764" s="2"/>
@@ -7170,7 +7198,7 @@
       <c r="F764" s="2"/>
       <c r="G764" s="6"/>
     </row>
-    <row r="765" spans="2:7">
+    <row r="765" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B765" s="17"/>
       <c r="C765" s="2"/>
       <c r="D765" s="2"/>
@@ -7178,7 +7206,7 @@
       <c r="F765" s="2"/>
       <c r="G765" s="6"/>
     </row>
-    <row r="766" spans="2:7">
+    <row r="766" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B766" s="17"/>
       <c r="C766" s="2"/>
       <c r="D766" s="2"/>
@@ -7186,7 +7214,7 @@
       <c r="F766" s="2"/>
       <c r="G766" s="6"/>
     </row>
-    <row r="767" spans="2:7">
+    <row r="767" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B767" s="17"/>
       <c r="C767" s="2"/>
       <c r="D767" s="2"/>
@@ -7194,7 +7222,7 @@
       <c r="F767" s="2"/>
       <c r="G767" s="6"/>
     </row>
-    <row r="768" spans="2:7">
+    <row r="768" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B768" s="17"/>
       <c r="C768" s="2"/>
       <c r="D768" s="2"/>
@@ -7202,7 +7230,7 @@
       <c r="F768" s="2"/>
       <c r="G768" s="6"/>
     </row>
-    <row r="769" spans="2:7">
+    <row r="769" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B769" s="17"/>
       <c r="C769" s="2"/>
       <c r="D769" s="2"/>
@@ -7210,7 +7238,7 @@
       <c r="F769" s="2"/>
       <c r="G769" s="6"/>
     </row>
-    <row r="770" spans="2:7">
+    <row r="770" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B770" s="17"/>
       <c r="C770" s="2"/>
       <c r="D770" s="2"/>
@@ -7218,7 +7246,7 @@
       <c r="F770" s="2"/>
       <c r="G770" s="6"/>
     </row>
-    <row r="771" spans="2:7">
+    <row r="771" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B771" s="17"/>
       <c r="C771" s="2"/>
       <c r="D771" s="2"/>
@@ -7226,7 +7254,7 @@
       <c r="F771" s="2"/>
       <c r="G771" s="6"/>
     </row>
-    <row r="772" spans="2:7">
+    <row r="772" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B772" s="17"/>
       <c r="C772" s="2"/>
       <c r="D772" s="2"/>
@@ -7234,7 +7262,7 @@
       <c r="F772" s="2"/>
       <c r="G772" s="6"/>
     </row>
-    <row r="773" spans="2:7">
+    <row r="773" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B773" s="17"/>
       <c r="C773" s="2"/>
       <c r="D773" s="2"/>
@@ -7242,7 +7270,7 @@
       <c r="F773" s="2"/>
       <c r="G773" s="6"/>
     </row>
-    <row r="774" spans="2:7">
+    <row r="774" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B774" s="17"/>
       <c r="C774" s="2"/>
       <c r="D774" s="2"/>
@@ -7250,7 +7278,7 @@
       <c r="F774" s="2"/>
       <c r="G774" s="6"/>
     </row>
-    <row r="775" spans="2:7">
+    <row r="775" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B775" s="17"/>
       <c r="C775" s="2"/>
       <c r="D775" s="2"/>
@@ -7258,7 +7286,7 @@
       <c r="F775" s="2"/>
       <c r="G775" s="6"/>
     </row>
-    <row r="776" spans="2:7">
+    <row r="776" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B776" s="17"/>
       <c r="C776" s="2"/>
       <c r="D776" s="2"/>
@@ -7266,7 +7294,7 @@
       <c r="F776" s="2"/>
       <c r="G776" s="6"/>
     </row>
-    <row r="777" spans="2:7">
+    <row r="777" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B777" s="17"/>
       <c r="C777" s="2"/>
       <c r="D777" s="2"/>
@@ -7274,7 +7302,7 @@
       <c r="F777" s="2"/>
       <c r="G777" s="6"/>
     </row>
-    <row r="778" spans="2:7">
+    <row r="778" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B778" s="17"/>
       <c r="C778" s="2"/>
       <c r="D778" s="2"/>
@@ -7282,7 +7310,7 @@
       <c r="F778" s="2"/>
       <c r="G778" s="6"/>
     </row>
-    <row r="779" spans="2:7">
+    <row r="779" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B779" s="17"/>
       <c r="C779" s="2"/>
       <c r="D779" s="2"/>
@@ -7290,7 +7318,7 @@
       <c r="F779" s="2"/>
       <c r="G779" s="6"/>
     </row>
-    <row r="780" spans="2:7">
+    <row r="780" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B780" s="17"/>
       <c r="C780" s="2"/>
       <c r="D780" s="2"/>
@@ -7298,7 +7326,7 @@
       <c r="F780" s="2"/>
       <c r="G780" s="6"/>
     </row>
-    <row r="781" spans="2:7">
+    <row r="781" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B781" s="17"/>
       <c r="C781" s="2"/>
       <c r="D781" s="2"/>
@@ -7306,7 +7334,7 @@
       <c r="F781" s="2"/>
       <c r="G781" s="6"/>
     </row>
-    <row r="782" spans="2:7">
+    <row r="782" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B782" s="17"/>
       <c r="C782" s="2"/>
       <c r="D782" s="2"/>
@@ -7314,7 +7342,7 @@
       <c r="F782" s="2"/>
       <c r="G782" s="6"/>
     </row>
-    <row r="783" spans="2:7">
+    <row r="783" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B783" s="17"/>
       <c r="C783" s="2"/>
       <c r="D783" s="2"/>
@@ -7322,7 +7350,7 @@
       <c r="F783" s="2"/>
       <c r="G783" s="6"/>
     </row>
-    <row r="784" spans="2:7">
+    <row r="784" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B784" s="17"/>
       <c r="C784" s="2"/>
       <c r="D784" s="2"/>
@@ -7330,7 +7358,7 @@
       <c r="F784" s="2"/>
       <c r="G784" s="6"/>
     </row>
-    <row r="785" spans="2:7">
+    <row r="785" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B785" s="17"/>
       <c r="C785" s="2"/>
       <c r="D785" s="2"/>
@@ -7338,7 +7366,7 @@
       <c r="F785" s="2"/>
       <c r="G785" s="6"/>
     </row>
-    <row r="786" spans="2:7">
+    <row r="786" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B786" s="17"/>
       <c r="C786" s="2"/>
       <c r="D786" s="2"/>
@@ -7346,7 +7374,7 @@
       <c r="F786" s="2"/>
       <c r="G786" s="6"/>
     </row>
-    <row r="787" spans="2:7">
+    <row r="787" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B787" s="17"/>
       <c r="C787" s="2"/>
       <c r="D787" s="2"/>
@@ -7354,7 +7382,7 @@
       <c r="F787" s="2"/>
       <c r="G787" s="6"/>
     </row>
-    <row r="788" spans="2:7">
+    <row r="788" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B788" s="17"/>
       <c r="C788" s="2"/>
       <c r="D788" s="2"/>
@@ -7362,7 +7390,7 @@
       <c r="F788" s="2"/>
       <c r="G788" s="6"/>
     </row>
-    <row r="789" spans="2:7">
+    <row r="789" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B789" s="17"/>
       <c r="C789" s="2"/>
       <c r="D789" s="2"/>
@@ -7370,7 +7398,7 @@
       <c r="F789" s="2"/>
       <c r="G789" s="6"/>
     </row>
-    <row r="790" spans="2:7">
+    <row r="790" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B790" s="17"/>
       <c r="C790" s="2"/>
       <c r="D790" s="2"/>
@@ -7378,7 +7406,7 @@
       <c r="F790" s="2"/>
       <c r="G790" s="6"/>
     </row>
-    <row r="791" spans="2:7">
+    <row r="791" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B791" s="17"/>
       <c r="C791" s="2"/>
       <c r="D791" s="2"/>
@@ -7386,7 +7414,7 @@
       <c r="F791" s="2"/>
       <c r="G791" s="6"/>
     </row>
-    <row r="792" spans="2:7">
+    <row r="792" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B792" s="17"/>
       <c r="C792" s="2"/>
       <c r="D792" s="2"/>
@@ -7394,7 +7422,7 @@
       <c r="F792" s="2"/>
       <c r="G792" s="6"/>
     </row>
-    <row r="793" spans="2:7">
+    <row r="793" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B793" s="17"/>
       <c r="C793" s="2"/>
       <c r="D793" s="2"/>
@@ -7402,7 +7430,7 @@
       <c r="F793" s="2"/>
       <c r="G793" s="6"/>
     </row>
-    <row r="794" spans="2:7">
+    <row r="794" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B794" s="17"/>
       <c r="C794" s="2"/>
       <c r="D794" s="2"/>
@@ -7410,7 +7438,7 @@
       <c r="F794" s="2"/>
       <c r="G794" s="6"/>
     </row>
-    <row r="795" spans="2:7">
+    <row r="795" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B795" s="17"/>
       <c r="C795" s="2"/>
       <c r="D795" s="2"/>
@@ -7418,7 +7446,7 @@
       <c r="F795" s="2"/>
       <c r="G795" s="6"/>
     </row>
-    <row r="796" spans="2:7">
+    <row r="796" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B796" s="17"/>
       <c r="C796" s="2"/>
       <c r="D796" s="2"/>
@@ -7426,7 +7454,7 @@
       <c r="F796" s="2"/>
       <c r="G796" s="6"/>
     </row>
-    <row r="797" spans="2:7">
+    <row r="797" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B797" s="17"/>
       <c r="C797" s="2"/>
       <c r="D797" s="2"/>
@@ -7434,7 +7462,7 @@
       <c r="F797" s="2"/>
       <c r="G797" s="6"/>
     </row>
-    <row r="798" spans="2:7">
+    <row r="798" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B798" s="17"/>
       <c r="C798" s="2"/>
       <c r="D798" s="2"/>
@@ -7442,7 +7470,7 @@
       <c r="F798" s="2"/>
       <c r="G798" s="6"/>
     </row>
-    <row r="799" spans="2:7">
+    <row r="799" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B799" s="17"/>
       <c r="C799" s="2"/>
       <c r="D799" s="2"/>
@@ -7450,7 +7478,7 @@
       <c r="F799" s="2"/>
       <c r="G799" s="6"/>
     </row>
-    <row r="800" spans="2:7">
+    <row r="800" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B800" s="17"/>
       <c r="C800" s="2"/>
       <c r="D800" s="2"/>
@@ -7458,7 +7486,7 @@
       <c r="F800" s="2"/>
       <c r="G800" s="6"/>
     </row>
-    <row r="801" spans="2:7">
+    <row r="801" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B801" s="17"/>
       <c r="C801" s="2"/>
       <c r="D801" s="2"/>
@@ -7466,7 +7494,7 @@
       <c r="F801" s="2"/>
       <c r="G801" s="6"/>
     </row>
-    <row r="802" spans="2:7">
+    <row r="802" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B802" s="17"/>
       <c r="C802" s="2"/>
       <c r="D802" s="2"/>
@@ -7474,7 +7502,7 @@
       <c r="F802" s="2"/>
       <c r="G802" s="6"/>
     </row>
-    <row r="803" spans="2:7">
+    <row r="803" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B803" s="17"/>
       <c r="C803" s="2"/>
       <c r="D803" s="2"/>
@@ -7482,7 +7510,7 @@
       <c r="F803" s="2"/>
       <c r="G803" s="6"/>
     </row>
-    <row r="804" spans="2:7">
+    <row r="804" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B804" s="17"/>
       <c r="C804" s="2"/>
       <c r="D804" s="2"/>
@@ -7490,7 +7518,7 @@
       <c r="F804" s="2"/>
       <c r="G804" s="6"/>
     </row>
-    <row r="805" spans="2:7">
+    <row r="805" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B805" s="17"/>
       <c r="C805" s="2"/>
       <c r="D805" s="2"/>
@@ -7498,7 +7526,7 @@
       <c r="F805" s="2"/>
       <c r="G805" s="6"/>
     </row>
-    <row r="806" spans="2:7">
+    <row r="806" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B806" s="17"/>
       <c r="C806" s="2"/>
       <c r="D806" s="2"/>
@@ -7506,7 +7534,7 @@
       <c r="F806" s="2"/>
       <c r="G806" s="6"/>
     </row>
-    <row r="807" spans="2:7">
+    <row r="807" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B807" s="17"/>
       <c r="C807" s="2"/>
       <c r="D807" s="2"/>
@@ -7514,7 +7542,7 @@
       <c r="F807" s="2"/>
       <c r="G807" s="6"/>
     </row>
-    <row r="808" spans="2:7">
+    <row r="808" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B808" s="17"/>
       <c r="C808" s="2"/>
       <c r="D808" s="2"/>
@@ -7522,7 +7550,7 @@
       <c r="F808" s="2"/>
       <c r="G808" s="6"/>
     </row>
-    <row r="809" spans="2:7">
+    <row r="809" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B809" s="17"/>
       <c r="C809" s="2"/>
       <c r="D809" s="2"/>
@@ -7530,7 +7558,7 @@
       <c r="F809" s="2"/>
       <c r="G809" s="6"/>
     </row>
-    <row r="810" spans="2:7">
+    <row r="810" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B810" s="17"/>
       <c r="C810" s="2"/>
       <c r="D810" s="2"/>
@@ -7538,7 +7566,7 @@
       <c r="F810" s="2"/>
       <c r="G810" s="6"/>
     </row>
-    <row r="811" spans="2:7">
+    <row r="811" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B811" s="17"/>
       <c r="C811" s="2"/>
       <c r="D811" s="2"/>
@@ -7546,7 +7574,7 @@
       <c r="F811" s="2"/>
       <c r="G811" s="6"/>
     </row>
-    <row r="812" spans="2:7">
+    <row r="812" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B812" s="17"/>
       <c r="C812" s="2"/>
       <c r="D812" s="2"/>
@@ -7554,7 +7582,7 @@
       <c r="F812" s="2"/>
       <c r="G812" s="6"/>
     </row>
-    <row r="813" spans="2:7">
+    <row r="813" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B813" s="17"/>
       <c r="C813" s="2"/>
       <c r="D813" s="2"/>
@@ -7562,7 +7590,7 @@
       <c r="F813" s="2"/>
       <c r="G813" s="6"/>
     </row>
-    <row r="814" spans="2:7">
+    <row r="814" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B814" s="17"/>
       <c r="C814" s="2"/>
       <c r="D814" s="2"/>
@@ -7570,7 +7598,7 @@
       <c r="F814" s="2"/>
       <c r="G814" s="6"/>
     </row>
-    <row r="815" spans="2:7">
+    <row r="815" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B815" s="17"/>
       <c r="C815" s="2"/>
       <c r="D815" s="2"/>
@@ -7578,7 +7606,7 @@
       <c r="F815" s="2"/>
       <c r="G815" s="6"/>
     </row>
-    <row r="816" spans="2:7">
+    <row r="816" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B816" s="17"/>
       <c r="C816" s="2"/>
       <c r="D816" s="2"/>
@@ -7586,7 +7614,7 @@
       <c r="F816" s="2"/>
       <c r="G816" s="6"/>
     </row>
-    <row r="817" spans="2:7">
+    <row r="817" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B817" s="17"/>
       <c r="C817" s="2"/>
       <c r="D817" s="2"/>
@@ -7594,7 +7622,7 @@
       <c r="F817" s="2"/>
       <c r="G817" s="6"/>
     </row>
-    <row r="818" spans="2:7">
+    <row r="818" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B818" s="17"/>
       <c r="C818" s="2"/>
       <c r="D818" s="2"/>
@@ -7602,7 +7630,7 @@
       <c r="F818" s="2"/>
       <c r="G818" s="6"/>
     </row>
-    <row r="819" spans="2:7">
+    <row r="819" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B819" s="17"/>
       <c r="C819" s="2"/>
       <c r="D819" s="2"/>
@@ -7610,7 +7638,7 @@
       <c r="F819" s="2"/>
       <c r="G819" s="6"/>
     </row>
-    <row r="820" spans="2:7">
+    <row r="820" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B820" s="17"/>
       <c r="C820" s="2"/>
       <c r="D820" s="2"/>
@@ -7618,7 +7646,7 @@
       <c r="F820" s="2"/>
       <c r="G820" s="6"/>
     </row>
-    <row r="821" spans="2:7">
+    <row r="821" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B821" s="17"/>
       <c r="C821" s="2"/>
       <c r="D821" s="2"/>
@@ -7626,7 +7654,7 @@
       <c r="F821" s="2"/>
       <c r="G821" s="6"/>
     </row>
-    <row r="822" spans="2:7">
+    <row r="822" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B822" s="17"/>
       <c r="C822" s="2"/>
       <c r="D822" s="2"/>
@@ -7634,7 +7662,7 @@
       <c r="F822" s="2"/>
       <c r="G822" s="6"/>
     </row>
-    <row r="823" spans="2:7">
+    <row r="823" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B823" s="17"/>
       <c r="C823" s="2"/>
       <c r="D823" s="2"/>
@@ -7642,7 +7670,7 @@
       <c r="F823" s="2"/>
       <c r="G823" s="6"/>
     </row>
-    <row r="824" spans="2:7">
+    <row r="824" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B824" s="17"/>
       <c r="C824" s="2"/>
       <c r="D824" s="2"/>
@@ -7650,7 +7678,7 @@
       <c r="F824" s="2"/>
       <c r="G824" s="6"/>
     </row>
-    <row r="825" spans="2:7">
+    <row r="825" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B825" s="17"/>
       <c r="C825" s="2"/>
       <c r="D825" s="2"/>
@@ -7658,7 +7686,7 @@
       <c r="F825" s="2"/>
       <c r="G825" s="6"/>
     </row>
-    <row r="826" spans="2:7">
+    <row r="826" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B826" s="17"/>
       <c r="C826" s="2"/>
       <c r="D826" s="2"/>
@@ -7666,7 +7694,7 @@
       <c r="F826" s="2"/>
       <c r="G826" s="6"/>
     </row>
-    <row r="827" spans="2:7">
+    <row r="827" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B827" s="17"/>
       <c r="C827" s="2"/>
       <c r="D827" s="2"/>
@@ -7674,7 +7702,7 @@
       <c r="F827" s="2"/>
       <c r="G827" s="6"/>
     </row>
-    <row r="828" spans="2:7">
+    <row r="828" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B828" s="17"/>
       <c r="C828" s="2"/>
       <c r="D828" s="2"/>
@@ -7682,7 +7710,7 @@
       <c r="F828" s="2"/>
       <c r="G828" s="6"/>
     </row>
-    <row r="829" spans="2:7">
+    <row r="829" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B829" s="17"/>
       <c r="C829" s="2"/>
       <c r="D829" s="2"/>
@@ -7690,7 +7718,7 @@
       <c r="F829" s="2"/>
       <c r="G829" s="6"/>
     </row>
-    <row r="830" spans="2:7">
+    <row r="830" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B830" s="17"/>
       <c r="C830" s="2"/>
       <c r="D830" s="2"/>
@@ -7698,7 +7726,7 @@
       <c r="F830" s="2"/>
       <c r="G830" s="6"/>
     </row>
-    <row r="831" spans="2:7">
+    <row r="831" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B831" s="17"/>
       <c r="C831" s="2"/>
       <c r="D831" s="2"/>
@@ -7706,7 +7734,7 @@
       <c r="F831" s="2"/>
       <c r="G831" s="6"/>
     </row>
-    <row r="832" spans="2:7">
+    <row r="832" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B832" s="17"/>
       <c r="C832" s="2"/>
       <c r="D832" s="2"/>
@@ -7714,7 +7742,7 @@
       <c r="F832" s="2"/>
       <c r="G832" s="6"/>
     </row>
-    <row r="833" spans="2:7">
+    <row r="833" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B833" s="17"/>
       <c r="C833" s="2"/>
       <c r="D833" s="2"/>
@@ -7722,7 +7750,7 @@
       <c r="F833" s="2"/>
       <c r="G833" s="6"/>
     </row>
-    <row r="834" spans="2:7">
+    <row r="834" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B834" s="17"/>
       <c r="C834" s="2"/>
       <c r="D834" s="2"/>
@@ -7730,7 +7758,7 @@
       <c r="F834" s="2"/>
       <c r="G834" s="6"/>
     </row>
-    <row r="835" spans="2:7">
+    <row r="835" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B835" s="17"/>
       <c r="C835" s="2"/>
       <c r="D835" s="2"/>
@@ -7738,7 +7766,7 @@
       <c r="F835" s="2"/>
       <c r="G835" s="6"/>
     </row>
-    <row r="836" spans="2:7">
+    <row r="836" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B836" s="17"/>
       <c r="C836" s="2"/>
       <c r="D836" s="2"/>
@@ -7746,7 +7774,7 @@
       <c r="F836" s="2"/>
       <c r="G836" s="6"/>
     </row>
-    <row r="837" spans="2:7">
+    <row r="837" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B837" s="17"/>
       <c r="C837" s="2"/>
       <c r="D837" s="2"/>
@@ -7754,7 +7782,7 @@
       <c r="F837" s="2"/>
       <c r="G837" s="6"/>
     </row>
-    <row r="838" spans="2:7">
+    <row r="838" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B838" s="17"/>
       <c r="C838" s="2"/>
       <c r="D838" s="2"/>
@@ -7762,7 +7790,7 @@
       <c r="F838" s="2"/>
       <c r="G838" s="6"/>
     </row>
-    <row r="839" spans="2:7">
+    <row r="839" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B839" s="17"/>
       <c r="C839" s="2"/>
       <c r="D839" s="2"/>
@@ -7770,7 +7798,7 @@
       <c r="F839" s="2"/>
       <c r="G839" s="6"/>
     </row>
-    <row r="840" spans="2:7">
+    <row r="840" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B840" s="17"/>
       <c r="C840" s="2"/>
       <c r="D840" s="2"/>
@@ -7778,7 +7806,7 @@
       <c r="F840" s="2"/>
       <c r="G840" s="6"/>
     </row>
-    <row r="841" spans="2:7">
+    <row r="841" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B841" s="17"/>
       <c r="C841" s="2"/>
       <c r="D841" s="2"/>
@@ -7786,7 +7814,7 @@
       <c r="F841" s="2"/>
       <c r="G841" s="6"/>
     </row>
-    <row r="842" spans="2:7">
+    <row r="842" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B842" s="17"/>
       <c r="C842" s="2"/>
       <c r="D842" s="2"/>
@@ -7794,7 +7822,7 @@
       <c r="F842" s="2"/>
       <c r="G842" s="6"/>
     </row>
-    <row r="843" spans="2:7">
+    <row r="843" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B843" s="17"/>
       <c r="C843" s="2"/>
       <c r="D843" s="2"/>
@@ -7802,7 +7830,7 @@
       <c r="F843" s="2"/>
       <c r="G843" s="6"/>
     </row>
-    <row r="844" spans="2:7">
+    <row r="844" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B844" s="17"/>
       <c r="C844" s="2"/>
       <c r="D844" s="2"/>
@@ -7810,7 +7838,7 @@
       <c r="F844" s="2"/>
       <c r="G844" s="6"/>
     </row>
-    <row r="845" spans="2:7">
+    <row r="845" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B845" s="17"/>
       <c r="C845" s="2"/>
       <c r="D845" s="2"/>
@@ -7818,7 +7846,7 @@
       <c r="F845" s="2"/>
       <c r="G845" s="6"/>
     </row>
-    <row r="846" spans="2:7">
+    <row r="846" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B846" s="17"/>
       <c r="C846" s="2"/>
       <c r="D846" s="2"/>
@@ -7826,7 +7854,7 @@
       <c r="F846" s="2"/>
       <c r="G846" s="6"/>
     </row>
-    <row r="847" spans="2:7">
+    <row r="847" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B847" s="17"/>
       <c r="C847" s="2"/>
       <c r="D847" s="2"/>
@@ -7834,7 +7862,7 @@
       <c r="F847" s="2"/>
       <c r="G847" s="6"/>
     </row>
-    <row r="848" spans="2:7">
+    <row r="848" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B848" s="17"/>
       <c r="C848" s="2"/>
       <c r="D848" s="2"/>
@@ -7842,7 +7870,7 @@
       <c r="F848" s="2"/>
       <c r="G848" s="6"/>
     </row>
-    <row r="849" spans="2:7">
+    <row r="849" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B849" s="17"/>
       <c r="C849" s="2"/>
       <c r="D849" s="2"/>
@@ -7850,7 +7878,7 @@
       <c r="F849" s="2"/>
       <c r="G849" s="6"/>
     </row>
-    <row r="850" spans="2:7">
+    <row r="850" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B850" s="17"/>
       <c r="C850" s="2"/>
       <c r="D850" s="2"/>
@@ -7858,7 +7886,7 @@
       <c r="F850" s="2"/>
       <c r="G850" s="6"/>
     </row>
-    <row r="851" spans="2:7">
+    <row r="851" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B851" s="17"/>
       <c r="C851" s="2"/>
       <c r="D851" s="2"/>
@@ -7866,7 +7894,7 @@
       <c r="F851" s="2"/>
       <c r="G851" s="6"/>
     </row>
-    <row r="852" spans="2:7">
+    <row r="852" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B852" s="17"/>
       <c r="C852" s="2"/>
       <c r="D852" s="2"/>
@@ -7874,7 +7902,7 @@
       <c r="F852" s="2"/>
       <c r="G852" s="6"/>
     </row>
-    <row r="853" spans="2:7">
+    <row r="853" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B853" s="17"/>
       <c r="C853" s="2"/>
       <c r="D853" s="2"/>
@@ -7882,7 +7910,7 @@
       <c r="F853" s="2"/>
       <c r="G853" s="6"/>
     </row>
-    <row r="854" spans="2:7">
+    <row r="854" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B854" s="17"/>
       <c r="C854" s="2"/>
       <c r="D854" s="2"/>
@@ -7890,7 +7918,7 @@
       <c r="F854" s="2"/>
       <c r="G854" s="6"/>
     </row>
-    <row r="855" spans="2:7">
+    <row r="855" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B855" s="17"/>
       <c r="C855" s="2"/>
       <c r="D855" s="2"/>
@@ -7898,7 +7926,7 @@
       <c r="F855" s="2"/>
       <c r="G855" s="6"/>
     </row>
-    <row r="856" spans="2:7">
+    <row r="856" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B856" s="17"/>
       <c r="C856" s="2"/>
       <c r="D856" s="2"/>
@@ -7906,7 +7934,7 @@
       <c r="F856" s="2"/>
       <c r="G856" s="6"/>
     </row>
-    <row r="857" spans="2:7">
+    <row r="857" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B857" s="17"/>
       <c r="C857" s="2"/>
       <c r="D857" s="2"/>
@@ -7914,7 +7942,7 @@
       <c r="F857" s="2"/>
       <c r="G857" s="6"/>
     </row>
-    <row r="858" spans="2:7">
+    <row r="858" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B858" s="17"/>
       <c r="C858" s="2"/>
       <c r="D858" s="2"/>
@@ -7922,7 +7950,7 @@
       <c r="F858" s="2"/>
       <c r="G858" s="6"/>
     </row>
-    <row r="859" spans="2:7">
+    <row r="859" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B859" s="17"/>
       <c r="C859" s="2"/>
       <c r="D859" s="2"/>
@@ -7930,7 +7958,7 @@
       <c r="F859" s="2"/>
       <c r="G859" s="6"/>
     </row>
-    <row r="860" spans="2:7">
+    <row r="860" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B860" s="17"/>
       <c r="C860" s="2"/>
       <c r="D860" s="2"/>
@@ -7938,7 +7966,7 @@
       <c r="F860" s="2"/>
       <c r="G860" s="6"/>
     </row>
-    <row r="861" spans="2:7">
+    <row r="861" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B861" s="17"/>
       <c r="C861" s="2"/>
       <c r="D861" s="2"/>
@@ -7946,7 +7974,7 @@
       <c r="F861" s="2"/>
       <c r="G861" s="6"/>
     </row>
-    <row r="862" spans="2:7">
+    <row r="862" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B862" s="17"/>
       <c r="C862" s="2"/>
       <c r="D862" s="2"/>
@@ -7954,7 +7982,7 @@
       <c r="F862" s="2"/>
       <c r="G862" s="6"/>
     </row>
-    <row r="863" spans="2:7">
+    <row r="863" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B863" s="17"/>
       <c r="C863" s="2"/>
       <c r="D863" s="2"/>
@@ -7962,7 +7990,7 @@
       <c r="F863" s="2"/>
       <c r="G863" s="6"/>
     </row>
-    <row r="864" spans="2:7">
+    <row r="864" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B864" s="17"/>
       <c r="C864" s="2"/>
       <c r="D864" s="2"/>
@@ -7970,7 +7998,7 @@
       <c r="F864" s="2"/>
       <c r="G864" s="6"/>
     </row>
-    <row r="865" spans="2:7">
+    <row r="865" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B865" s="17"/>
       <c r="C865" s="2"/>
       <c r="D865" s="2"/>
@@ -7978,7 +8006,7 @@
       <c r="F865" s="2"/>
       <c r="G865" s="6"/>
     </row>
-    <row r="866" spans="2:7">
+    <row r="866" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B866" s="17"/>
       <c r="C866" s="2"/>
       <c r="D866" s="2"/>
@@ -7986,7 +8014,7 @@
       <c r="F866" s="2"/>
       <c r="G866" s="6"/>
     </row>
-    <row r="867" spans="2:7">
+    <row r="867" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B867" s="17"/>
       <c r="C867" s="2"/>
       <c r="D867" s="2"/>
@@ -7994,7 +8022,7 @@
       <c r="F867" s="2"/>
       <c r="G867" s="6"/>
     </row>
-    <row r="868" spans="2:7">
+    <row r="868" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B868" s="17"/>
       <c r="C868" s="2"/>
       <c r="D868" s="2"/>
@@ -8002,7 +8030,7 @@
       <c r="F868" s="2"/>
       <c r="G868" s="6"/>
     </row>
-    <row r="869" spans="2:7">
+    <row r="869" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B869" s="17"/>
       <c r="C869" s="2"/>
       <c r="D869" s="2"/>
@@ -8010,7 +8038,7 @@
       <c r="F869" s="2"/>
       <c r="G869" s="6"/>
     </row>
-    <row r="870" spans="2:7">
+    <row r="870" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B870" s="17"/>
       <c r="C870" s="2"/>
       <c r="D870" s="2"/>
@@ -8018,7 +8046,7 @@
       <c r="F870" s="2"/>
       <c r="G870" s="6"/>
     </row>
-    <row r="871" spans="2:7">
+    <row r="871" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B871" s="17"/>
       <c r="C871" s="2"/>
       <c r="D871" s="2"/>
@@ -8026,7 +8054,7 @@
       <c r="F871" s="2"/>
       <c r="G871" s="6"/>
     </row>
-    <row r="872" spans="2:7">
+    <row r="872" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B872" s="17"/>
       <c r="C872" s="2"/>
       <c r="D872" s="2"/>
@@ -8034,7 +8062,7 @@
       <c r="F872" s="2"/>
       <c r="G872" s="6"/>
     </row>
-    <row r="873" spans="2:7">
+    <row r="873" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B873" s="17"/>
       <c r="C873" s="2"/>
       <c r="D873" s="2"/>
@@ -8042,7 +8070,7 @@
       <c r="F873" s="2"/>
       <c r="G873" s="6"/>
     </row>
-    <row r="874" spans="2:7">
+    <row r="874" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B874" s="17"/>
       <c r="C874" s="2"/>
       <c r="D874" s="2"/>
@@ -8050,7 +8078,7 @@
       <c r="F874" s="2"/>
       <c r="G874" s="6"/>
     </row>
-    <row r="875" spans="2:7">
+    <row r="875" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B875" s="17"/>
       <c r="C875" s="2"/>
       <c r="D875" s="2"/>
@@ -8058,7 +8086,7 @@
       <c r="F875" s="2"/>
       <c r="G875" s="6"/>
     </row>
-    <row r="876" spans="2:7">
+    <row r="876" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B876" s="17"/>
       <c r="C876" s="2"/>
       <c r="D876" s="2"/>
@@ -8066,7 +8094,7 @@
       <c r="F876" s="2"/>
       <c r="G876" s="6"/>
     </row>
-    <row r="877" spans="2:7">
+    <row r="877" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B877" s="17"/>
       <c r="C877" s="2"/>
       <c r="D877" s="2"/>
@@ -8074,7 +8102,7 @@
       <c r="F877" s="2"/>
       <c r="G877" s="6"/>
     </row>
-    <row r="878" spans="2:7">
+    <row r="878" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B878" s="17"/>
       <c r="C878" s="2"/>
       <c r="D878" s="2"/>
@@ -8082,7 +8110,7 @@
       <c r="F878" s="2"/>
       <c r="G878" s="6"/>
     </row>
-    <row r="879" spans="2:7">
+    <row r="879" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B879" s="17"/>
       <c r="C879" s="2"/>
       <c r="D879" s="2"/>
@@ -8090,7 +8118,7 @@
       <c r="F879" s="2"/>
       <c r="G879" s="6"/>
     </row>
-    <row r="880" spans="2:7">
+    <row r="880" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B880" s="17"/>
       <c r="C880" s="2"/>
       <c r="D880" s="2"/>
@@ -8098,7 +8126,7 @@
       <c r="F880" s="2"/>
       <c r="G880" s="6"/>
     </row>
-    <row r="881" spans="2:7">
+    <row r="881" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B881" s="17"/>
       <c r="C881" s="2"/>
       <c r="D881" s="2"/>
@@ -8106,7 +8134,7 @@
       <c r="F881" s="2"/>
       <c r="G881" s="6"/>
     </row>
-    <row r="882" spans="2:7">
+    <row r="882" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B882" s="17"/>
       <c r="C882" s="2"/>
       <c r="D882" s="2"/>
@@ -8114,7 +8142,7 @@
       <c r="F882" s="2"/>
       <c r="G882" s="6"/>
     </row>
-    <row r="883" spans="2:7">
+    <row r="883" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B883" s="17"/>
       <c r="C883" s="2"/>
       <c r="D883" s="2"/>
@@ -8122,7 +8150,7 @@
       <c r="F883" s="2"/>
       <c r="G883" s="6"/>
     </row>
-    <row r="884" spans="2:7">
+    <row r="884" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B884" s="17"/>
       <c r="C884" s="2"/>
       <c r="D884" s="2"/>
@@ -8130,7 +8158,7 @@
       <c r="F884" s="2"/>
       <c r="G884" s="6"/>
     </row>
-    <row r="885" spans="2:7">
+    <row r="885" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B885" s="17"/>
       <c r="C885" s="2"/>
       <c r="D885" s="2"/>
@@ -8138,7 +8166,7 @@
       <c r="F885" s="2"/>
       <c r="G885" s="6"/>
     </row>
-    <row r="886" spans="2:7">
+    <row r="886" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B886" s="17"/>
       <c r="C886" s="2"/>
       <c r="D886" s="2"/>
@@ -8146,7 +8174,7 @@
       <c r="F886" s="2"/>
       <c r="G886" s="6"/>
     </row>
-    <row r="887" spans="2:7">
+    <row r="887" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B887" s="17"/>
       <c r="C887" s="2"/>
       <c r="D887" s="2"/>
@@ -8154,7 +8182,7 @@
       <c r="F887" s="2"/>
       <c r="G887" s="6"/>
     </row>
-    <row r="888" spans="2:7">
+    <row r="888" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B888" s="17"/>
       <c r="C888" s="2"/>
       <c r="D888" s="2"/>
@@ -8162,7 +8190,7 @@
       <c r="F888" s="2"/>
       <c r="G888" s="6"/>
     </row>
-    <row r="889" spans="2:7">
+    <row r="889" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B889" s="17"/>
       <c r="C889" s="2"/>
       <c r="D889" s="2"/>
@@ -8170,7 +8198,7 @@
       <c r="F889" s="2"/>
       <c r="G889" s="6"/>
     </row>
-    <row r="890" spans="2:7">
+    <row r="890" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B890" s="17"/>
       <c r="C890" s="2"/>
       <c r="D890" s="2"/>
@@ -8178,7 +8206,7 @@
       <c r="F890" s="2"/>
       <c r="G890" s="6"/>
     </row>
-    <row r="891" spans="2:7">
+    <row r="891" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B891" s="17"/>
       <c r="C891" s="2"/>
       <c r="D891" s="2"/>
@@ -8186,7 +8214,7 @@
       <c r="F891" s="2"/>
       <c r="G891" s="6"/>
     </row>
-    <row r="892" spans="2:7">
+    <row r="892" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B892" s="17"/>
       <c r="C892" s="2"/>
       <c r="D892" s="2"/>
@@ -8194,7 +8222,7 @@
       <c r="F892" s="2"/>
       <c r="G892" s="6"/>
     </row>
-    <row r="893" spans="2:7">
+    <row r="893" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B893" s="17"/>
       <c r="C893" s="2"/>
       <c r="D893" s="2"/>
@@ -8202,7 +8230,7 @@
       <c r="F893" s="2"/>
       <c r="G893" s="6"/>
     </row>
-    <row r="894" spans="2:7">
+    <row r="894" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B894" s="17"/>
       <c r="C894" s="2"/>
       <c r="D894" s="2"/>
@@ -8210,7 +8238,7 @@
       <c r="F894" s="2"/>
       <c r="G894" s="6"/>
     </row>
-    <row r="895" spans="2:7">
+    <row r="895" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B895" s="17"/>
       <c r="C895" s="2"/>
       <c r="D895" s="2"/>
@@ -8218,7 +8246,7 @@
       <c r="F895" s="2"/>
       <c r="G895" s="6"/>
     </row>
-    <row r="896" spans="2:7">
+    <row r="896" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B896" s="17"/>
       <c r="C896" s="2"/>
       <c r="D896" s="2"/>
@@ -8226,7 +8254,7 @@
       <c r="F896" s="2"/>
       <c r="G896" s="6"/>
     </row>
-    <row r="897" spans="2:7">
+    <row r="897" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B897" s="17"/>
       <c r="C897" s="2"/>
       <c r="D897" s="2"/>
@@ -8234,7 +8262,7 @@
       <c r="F897" s="2"/>
       <c r="G897" s="6"/>
     </row>
-    <row r="898" spans="2:7">
+    <row r="898" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B898" s="17"/>
       <c r="C898" s="2"/>
       <c r="D898" s="2"/>
@@ -8242,7 +8270,7 @@
       <c r="F898" s="2"/>
       <c r="G898" s="6"/>
     </row>
-    <row r="899" spans="2:7">
+    <row r="899" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B899" s="17"/>
       <c r="C899" s="2"/>
       <c r="D899" s="2"/>
@@ -8250,7 +8278,7 @@
       <c r="F899" s="2"/>
       <c r="G899" s="6"/>
     </row>
-    <row r="900" spans="2:7">
+    <row r="900" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B900" s="17"/>
       <c r="C900" s="2"/>
       <c r="D900" s="2"/>
@@ -8258,7 +8286,7 @@
       <c r="F900" s="2"/>
       <c r="G900" s="6"/>
     </row>
-    <row r="901" spans="2:7">
+    <row r="901" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B901" s="17"/>
       <c r="C901" s="2"/>
       <c r="D901" s="2"/>
@@ -8266,7 +8294,7 @@
       <c r="F901" s="2"/>
       <c r="G901" s="6"/>
     </row>
-    <row r="902" spans="2:7">
+    <row r="902" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B902" s="17"/>
       <c r="C902" s="2"/>
       <c r="D902" s="2"/>
@@ -8274,7 +8302,7 @@
       <c r="F902" s="2"/>
       <c r="G902" s="6"/>
     </row>
-    <row r="903" spans="2:7">
+    <row r="903" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B903" s="17"/>
       <c r="C903" s="2"/>
       <c r="D903" s="2"/>
@@ -8282,7 +8310,7 @@
       <c r="F903" s="2"/>
       <c r="G903" s="6"/>
     </row>
-    <row r="904" spans="2:7">
+    <row r="904" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B904" s="17"/>
       <c r="C904" s="2"/>
       <c r="D904" s="2"/>
@@ -8290,7 +8318,7 @@
       <c r="F904" s="2"/>
       <c r="G904" s="6"/>
     </row>
-    <row r="905" spans="2:7">
+    <row r="905" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B905" s="17"/>
       <c r="C905" s="2"/>
       <c r="D905" s="2"/>
@@ -8298,7 +8326,7 @@
       <c r="F905" s="2"/>
       <c r="G905" s="6"/>
     </row>
-    <row r="906" spans="2:7">
+    <row r="906" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B906" s="17"/>
       <c r="C906" s="2"/>
       <c r="D906" s="2"/>
@@ -8306,7 +8334,7 @@
       <c r="F906" s="2"/>
       <c r="G906" s="6"/>
     </row>
-    <row r="907" spans="2:7">
+    <row r="907" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B907" s="17"/>
       <c r="C907" s="2"/>
       <c r="D907" s="2"/>
@@ -8314,7 +8342,7 @@
       <c r="F907" s="2"/>
       <c r="G907" s="6"/>
     </row>
-    <row r="908" spans="2:7">
+    <row r="908" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B908" s="17"/>
       <c r="C908" s="2"/>
       <c r="D908" s="2"/>
@@ -8322,7 +8350,7 @@
       <c r="F908" s="2"/>
       <c r="G908" s="6"/>
     </row>
-    <row r="909" spans="2:7">
+    <row r="909" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B909" s="17"/>
       <c r="C909" s="2"/>
       <c r="D909" s="2"/>
@@ -8330,7 +8358,7 @@
       <c r="F909" s="2"/>
       <c r="G909" s="6"/>
     </row>
-    <row r="910" spans="2:7">
+    <row r="910" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B910" s="17"/>
       <c r="C910" s="2"/>
       <c r="D910" s="2"/>
@@ -8338,7 +8366,7 @@
       <c r="F910" s="2"/>
       <c r="G910" s="6"/>
     </row>
-    <row r="911" spans="2:7">
+    <row r="911" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B911" s="17"/>
       <c r="C911" s="2"/>
       <c r="D911" s="2"/>
@@ -8346,7 +8374,7 @@
       <c r="F911" s="2"/>
       <c r="G911" s="6"/>
     </row>
-    <row r="912" spans="2:7">
+    <row r="912" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B912" s="17"/>
       <c r="C912" s="2"/>
       <c r="D912" s="2"/>
@@ -8354,7 +8382,7 @@
       <c r="F912" s="2"/>
       <c r="G912" s="6"/>
     </row>
-    <row r="913" spans="2:7">
+    <row r="913" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B913" s="17"/>
       <c r="C913" s="2"/>
       <c r="D913" s="2"/>
@@ -8362,7 +8390,7 @@
       <c r="F913" s="2"/>
       <c r="G913" s="6"/>
     </row>
-    <row r="914" spans="2:7">
+    <row r="914" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B914" s="17"/>
       <c r="C914" s="2"/>
       <c r="D914" s="2"/>
@@ -8370,7 +8398,7 @@
       <c r="F914" s="2"/>
       <c r="G914" s="6"/>
     </row>
-    <row r="915" spans="2:7">
+    <row r="915" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B915" s="17"/>
       <c r="C915" s="2"/>
       <c r="D915" s="2"/>
@@ -8378,7 +8406,7 @@
       <c r="F915" s="2"/>
       <c r="G915" s="6"/>
     </row>
-    <row r="916" spans="2:7">
+    <row r="916" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B916" s="17"/>
       <c r="C916" s="2"/>
       <c r="D916" s="2"/>
@@ -8386,7 +8414,7 @@
       <c r="F916" s="2"/>
       <c r="G916" s="6"/>
     </row>
-    <row r="917" spans="2:7">
+    <row r="917" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B917" s="17"/>
       <c r="C917" s="2"/>
       <c r="D917" s="2"/>
@@ -8394,7 +8422,7 @@
       <c r="F917" s="2"/>
       <c r="G917" s="6"/>
     </row>
-    <row r="918" spans="2:7">
+    <row r="918" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B918" s="17"/>
       <c r="C918" s="2"/>
       <c r="D918" s="2"/>
@@ -8402,7 +8430,7 @@
       <c r="F918" s="2"/>
       <c r="G918" s="6"/>
     </row>
-    <row r="919" spans="2:7">
+    <row r="919" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B919" s="17"/>
       <c r="C919" s="2"/>
       <c r="D919" s="2"/>
@@ -8410,7 +8438,7 @@
       <c r="F919" s="2"/>
       <c r="G919" s="6"/>
     </row>
-    <row r="920" spans="2:7">
+    <row r="920" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B920" s="17"/>
       <c r="C920" s="2"/>
       <c r="D920" s="2"/>
@@ -8418,7 +8446,7 @@
       <c r="F920" s="2"/>
       <c r="G920" s="6"/>
     </row>
-    <row r="921" spans="2:7">
+    <row r="921" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B921" s="17"/>
       <c r="C921" s="2"/>
       <c r="D921" s="2"/>
@@ -8426,7 +8454,7 @@
       <c r="F921" s="2"/>
       <c r="G921" s="6"/>
     </row>
-    <row r="922" spans="2:7">
+    <row r="922" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B922" s="17"/>
       <c r="C922" s="2"/>
       <c r="D922" s="2"/>
@@ -8434,7 +8462,7 @@
       <c r="F922" s="2"/>
       <c r="G922" s="6"/>
     </row>
-    <row r="923" spans="2:7">
+    <row r="923" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B923" s="17"/>
       <c r="C923" s="2"/>
       <c r="D923" s="2"/>
@@ -8442,7 +8470,7 @@
       <c r="F923" s="2"/>
       <c r="G923" s="6"/>
     </row>
-    <row r="924" spans="2:7">
+    <row r="924" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B924" s="17"/>
       <c r="C924" s="2"/>
       <c r="D924" s="2"/>
@@ -8450,7 +8478,7 @@
       <c r="F924" s="2"/>
       <c r="G924" s="6"/>
     </row>
-    <row r="925" spans="2:7">
+    <row r="925" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B925" s="17"/>
       <c r="C925" s="2"/>
       <c r="D925" s="2"/>
@@ -8458,7 +8486,7 @@
       <c r="F925" s="2"/>
       <c r="G925" s="6"/>
     </row>
-    <row r="926" spans="2:7">
+    <row r="926" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B926" s="17"/>
       <c r="C926" s="2"/>
       <c r="D926" s="2"/>
@@ -8466,7 +8494,7 @@
       <c r="F926" s="2"/>
       <c r="G926" s="6"/>
     </row>
-    <row r="927" spans="2:7">
+    <row r="927" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B927" s="17"/>
       <c r="C927" s="2"/>
       <c r="D927" s="2"/>
@@ -8474,7 +8502,7 @@
       <c r="F927" s="2"/>
       <c r="G927" s="6"/>
     </row>
-    <row r="928" spans="2:7">
+    <row r="928" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B928" s="17"/>
       <c r="C928" s="2"/>
       <c r="D928" s="2"/>
@@ -8482,7 +8510,7 @@
       <c r="F928" s="2"/>
       <c r="G928" s="6"/>
     </row>
-    <row r="929" spans="2:7">
+    <row r="929" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B929" s="17"/>
       <c r="C929" s="2"/>
       <c r="D929" s="2"/>
@@ -8490,7 +8518,7 @@
       <c r="F929" s="2"/>
       <c r="G929" s="6"/>
     </row>
-    <row r="930" spans="2:7">
+    <row r="930" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B930" s="17"/>
       <c r="C930" s="2"/>
       <c r="D930" s="2"/>
@@ -8498,7 +8526,7 @@
       <c r="F930" s="2"/>
       <c r="G930" s="6"/>
     </row>
-    <row r="931" spans="2:7">
+    <row r="931" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B931" s="17"/>
       <c r="C931" s="2"/>
       <c r="D931" s="2"/>
@@ -8506,7 +8534,7 @@
       <c r="F931" s="2"/>
       <c r="G931" s="6"/>
     </row>
-    <row r="932" spans="2:7">
+    <row r="932" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B932" s="17"/>
       <c r="C932" s="2"/>
       <c r="D932" s="2"/>
@@ -8514,7 +8542,7 @@
       <c r="F932" s="2"/>
       <c r="G932" s="6"/>
     </row>
-    <row r="933" spans="2:7">
+    <row r="933" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B933" s="17"/>
       <c r="C933" s="2"/>
       <c r="D933" s="2"/>
@@ -8522,7 +8550,7 @@
       <c r="F933" s="2"/>
       <c r="G933" s="6"/>
     </row>
-    <row r="934" spans="2:7">
+    <row r="934" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B934" s="17"/>
       <c r="C934" s="2"/>
       <c r="D934" s="2"/>
@@ -8530,7 +8558,7 @@
       <c r="F934" s="2"/>
       <c r="G934" s="6"/>
     </row>
-    <row r="935" spans="2:7">
+    <row r="935" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B935" s="17"/>
       <c r="C935" s="2"/>
       <c r="D935" s="2"/>
@@ -8538,7 +8566,7 @@
       <c r="F935" s="2"/>
       <c r="G935" s="6"/>
     </row>
-    <row r="936" spans="2:7">
+    <row r="936" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B936" s="17"/>
       <c r="C936" s="2"/>
       <c r="D936" s="2"/>
@@ -8546,7 +8574,7 @@
       <c r="F936" s="2"/>
       <c r="G936" s="6"/>
     </row>
-    <row r="937" spans="2:7">
+    <row r="937" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B937" s="17"/>
       <c r="C937" s="2"/>
       <c r="D937" s="2"/>
@@ -8554,7 +8582,7 @@
       <c r="F937" s="2"/>
       <c r="G937" s="6"/>
     </row>
-    <row r="938" spans="2:7">
+    <row r="938" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B938" s="17"/>
       <c r="C938" s="2"/>
       <c r="D938" s="2"/>
@@ -8562,7 +8590,7 @@
       <c r="F938" s="2"/>
       <c r="G938" s="6"/>
     </row>
-    <row r="939" spans="2:7">
+    <row r="939" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B939" s="17"/>
       <c r="C939" s="2"/>
       <c r="D939" s="2"/>
@@ -8570,7 +8598,7 @@
       <c r="F939" s="2"/>
       <c r="G939" s="6"/>
     </row>
-    <row r="940" spans="2:7">
+    <row r="940" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B940" s="17"/>
       <c r="C940" s="2"/>
       <c r="D940" s="2"/>
@@ -8578,7 +8606,7 @@
       <c r="F940" s="2"/>
       <c r="G940" s="6"/>
     </row>
-    <row r="941" spans="2:7">
+    <row r="941" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B941" s="17"/>
       <c r="C941" s="2"/>
       <c r="D941" s="2"/>
@@ -8586,12 +8614,20 @@
       <c r="F941" s="2"/>
       <c r="G941" s="6"/>
     </row>
+    <row r="942" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B942" s="17"/>
+      <c r="C942" s="2"/>
+      <c r="D942" s="2"/>
+      <c r="E942" s="2"/>
+      <c r="F942" s="2"/>
+      <c r="G942" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1"/>
+    <hyperlink ref="B23" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Docs/ScenariosPassionFruit.xlsx
+++ b/Docs/ScenariosPassionFruit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\SoftuniQA_Automation\GitHub TeamWork\Teamwork\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerganka\Desktop\TeamWork_ForkRepo\Teamwork\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -197,10 +197,10 @@
     <t xml:space="preserve">1. Start Browser     2. Navigate to  URL  http://localhost:60634/Article/List    3. Chech the user is logged     4. Click on Article Heading            5.  View Article Details Page  6.Click on Edit button    </t>
   </si>
   <si>
-    <t>Redirect to Create Article page. Registered user can create posts</t>
+    <t>1. Start Browser     2. Navigate to  URL  http://localhost:60634/Article/List    3. Check the user is logged     4. Click on Create button     5. Navigate to URL       http://localhost:60634/Article/List     6. Check the author name of last post</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Start Browser     2. Navigate to  URL  http://localhost:60634/Article/List    3. Check the user is logged     4. Click on Create button      </t>
+    <t>Redirect to Create Article page. Registered user can create posts. The name of last post's author must be the name of the user</t>
   </si>
 </sst>
 </file>
@@ -849,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I942"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1050,10 +1050,10 @@
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I9" s="10"/>
     </row>
